--- a/Finanzas/1_Ene-Abr_2019.xlsx
+++ b/Finanzas/1_Ene-Abr_2019.xlsx
@@ -2058,7 +2058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="591">
+  <cellXfs count="592">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3523,6 +3523,192 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3577,193 +3763,10 @@
     <xf numFmtId="16" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4063,7 +4066,7 @@
   <dimension ref="A1:BU963"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4127,35 +4130,35 @@
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
       <c r="AO1" s="3"/>
-      <c r="AP1" s="528" t="s">
+      <c r="AP1" s="562" t="s">
         <v>50</v>
       </c>
-      <c r="AQ1" s="528"/>
-      <c r="AR1" s="528"/>
-      <c r="AS1" s="528"/>
-      <c r="AT1" s="528"/>
-      <c r="AU1" s="528"/>
-      <c r="AV1" s="528"/>
-      <c r="AW1" s="528"/>
-      <c r="AX1" s="528"/>
-      <c r="AY1" s="528"/>
-      <c r="AZ1" s="528"/>
-      <c r="BA1" s="528"/>
-      <c r="BB1" s="528"/>
-      <c r="BC1" s="528"/>
-      <c r="BD1" s="528"/>
-      <c r="BE1" s="528"/>
-      <c r="BF1" s="528"/>
-      <c r="BG1" s="528"/>
-      <c r="BH1" s="528"/>
-      <c r="BI1" s="528"/>
-      <c r="BJ1" s="528"/>
-      <c r="BK1" s="528"/>
-      <c r="BL1" s="528"/>
-      <c r="BM1" s="528"/>
-      <c r="BN1" s="528"/>
-      <c r="BO1" s="528"/>
-      <c r="BP1" s="528"/>
+      <c r="AQ1" s="562"/>
+      <c r="AR1" s="562"/>
+      <c r="AS1" s="562"/>
+      <c r="AT1" s="562"/>
+      <c r="AU1" s="562"/>
+      <c r="AV1" s="562"/>
+      <c r="AW1" s="562"/>
+      <c r="AX1" s="562"/>
+      <c r="AY1" s="562"/>
+      <c r="AZ1" s="562"/>
+      <c r="BA1" s="562"/>
+      <c r="BB1" s="562"/>
+      <c r="BC1" s="562"/>
+      <c r="BD1" s="562"/>
+      <c r="BE1" s="562"/>
+      <c r="BF1" s="562"/>
+      <c r="BG1" s="562"/>
+      <c r="BH1" s="562"/>
+      <c r="BI1" s="562"/>
+      <c r="BJ1" s="562"/>
+      <c r="BK1" s="562"/>
+      <c r="BL1" s="562"/>
+      <c r="BM1" s="562"/>
+      <c r="BN1" s="562"/>
+      <c r="BO1" s="562"/>
+      <c r="BP1" s="562"/>
       <c r="BS1" s="1"/>
     </row>
     <row r="2" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4395,7 +4398,7 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="492">
         <f>Q3-T10</f>
-        <v>75487.56</v>
+        <v>80265.06</v>
       </c>
       <c r="S4" s="36"/>
       <c r="T4" s="36"/>
@@ -4404,7 +4407,7 @@
       </c>
       <c r="V4" s="14">
         <f>SUM(Q3,AE9,V7)-T10</f>
-        <v>175962.56</v>
+        <v>180740.06</v>
       </c>
       <c r="W4" s="66"/>
       <c r="X4" s="59"/>
@@ -4469,14 +4472,14 @@
     </row>
     <row r="5" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
-      <c r="B5" s="515" t="s">
+      <c r="B5" s="577" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="516"/>
-      <c r="D5" s="516"/>
-      <c r="E5" s="516"/>
-      <c r="F5" s="516"/>
-      <c r="G5" s="517"/>
+      <c r="C5" s="578"/>
+      <c r="D5" s="578"/>
+      <c r="E5" s="578"/>
+      <c r="F5" s="578"/>
+      <c r="G5" s="579"/>
       <c r="H5" s="51"/>
       <c r="L5" s="489" t="s">
         <v>132</v>
@@ -4491,14 +4494,14 @@
       <c r="T5" s="490"/>
       <c r="U5" s="490"/>
       <c r="V5" s="491"/>
-      <c r="W5" s="529" t="s">
+      <c r="W5" s="563" t="s">
         <v>133</v>
       </c>
-      <c r="X5" s="530"/>
-      <c r="Y5" s="532" t="s">
+      <c r="X5" s="564"/>
+      <c r="Y5" s="566" t="s">
         <v>86</v>
       </c>
-      <c r="Z5" s="533"/>
+      <c r="Z5" s="567"/>
       <c r="AM5" s="217">
         <v>43468</v>
       </c>
@@ -4553,14 +4556,14 @@
     </row>
     <row r="6" spans="1:73" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25"/>
-      <c r="B6" s="518" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="519"/>
-      <c r="D6" s="519"/>
-      <c r="E6" s="519"/>
-      <c r="F6" s="519"/>
-      <c r="G6" s="520"/>
+      <c r="B6" s="580" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="581"/>
+      <c r="D6" s="581"/>
+      <c r="E6" s="581"/>
+      <c r="F6" s="581"/>
+      <c r="G6" s="582"/>
       <c r="H6" s="51"/>
       <c r="L6" s="62"/>
       <c r="M6" s="445"/>
@@ -4771,58 +4774,58 @@
       <c r="BP8" s="265"/>
     </row>
     <row r="9" spans="1:73" s="161" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="521" t="s">
+      <c r="A9" s="583" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="522"/>
-      <c r="C9" s="522"/>
-      <c r="D9" s="522"/>
+      <c r="B9" s="584"/>
+      <c r="C9" s="584"/>
+      <c r="D9" s="584"/>
       <c r="E9" s="153">
         <f>SUM(E10:E494)</f>
         <v>12188</v>
       </c>
-      <c r="G9" s="523" t="s">
+      <c r="G9" s="585" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="524"/>
-      <c r="I9" s="524"/>
-      <c r="J9" s="524"/>
-      <c r="K9" s="524"/>
-      <c r="L9" s="525"/>
+      <c r="H9" s="586"/>
+      <c r="I9" s="586"/>
+      <c r="J9" s="586"/>
+      <c r="K9" s="586"/>
+      <c r="L9" s="587"/>
       <c r="M9" s="451"/>
-      <c r="N9" s="510" t="s">
+      <c r="N9" s="572" t="s">
         <v>165</v>
       </c>
-      <c r="O9" s="511"/>
-      <c r="P9" s="511"/>
-      <c r="Q9" s="511"/>
-      <c r="R9" s="511"/>
-      <c r="S9" s="511"/>
-      <c r="T9" s="512"/>
-      <c r="V9" s="534" t="s">
+      <c r="O9" s="573"/>
+      <c r="P9" s="573"/>
+      <c r="Q9" s="573"/>
+      <c r="R9" s="573"/>
+      <c r="S9" s="573"/>
+      <c r="T9" s="574"/>
+      <c r="V9" s="568" t="s">
         <v>85</v>
       </c>
-      <c r="W9" s="535"/>
-      <c r="X9" s="535"/>
-      <c r="Y9" s="535"/>
-      <c r="Z9" s="535"/>
-      <c r="AA9" s="535"/>
-      <c r="AB9" s="535"/>
-      <c r="AC9" s="536" t="s">
+      <c r="W9" s="569"/>
+      <c r="X9" s="569"/>
+      <c r="Y9" s="569"/>
+      <c r="Z9" s="569"/>
+      <c r="AA9" s="569"/>
+      <c r="AB9" s="569"/>
+      <c r="AC9" s="570" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="537"/>
+      <c r="AD9" s="571"/>
       <c r="AE9" s="100">
         <f>SUM(AE11:AE495)</f>
         <v>99725</v>
       </c>
-      <c r="AG9" s="529" t="s">
+      <c r="AG9" s="563" t="s">
         <v>137</v>
       </c>
-      <c r="AH9" s="530"/>
-      <c r="AI9" s="530"/>
-      <c r="AJ9" s="530"/>
-      <c r="AK9" s="531"/>
+      <c r="AH9" s="564"/>
+      <c r="AI9" s="564"/>
+      <c r="AJ9" s="564"/>
+      <c r="AK9" s="565"/>
       <c r="AM9" s="217">
         <v>43472</v>
       </c>
@@ -4912,11 +4915,11 @@
       </c>
       <c r="O10" s="499">
         <f>SUM(T11,T23)</f>
-        <v>3675</v>
+        <v>3675.9399999999996</v>
       </c>
       <c r="P10" s="504">
         <f>O10*0.05</f>
-        <v>183.75</v>
+        <v>183.797</v>
       </c>
       <c r="Q10" s="466"/>
       <c r="R10" s="452"/>
@@ -4925,7 +4928,7 @@
       </c>
       <c r="T10" s="464">
         <f>(SUM(T24))</f>
-        <v>4777.5</v>
+        <v>0</v>
       </c>
       <c r="V10" s="183" t="s">
         <v>5</v>
@@ -4958,19 +4961,19 @@
         <v>30</v>
       </c>
       <c r="AF10" s="187"/>
-      <c r="AG10" s="560" t="s">
+      <c r="AG10" s="532" t="s">
         <v>5</v>
       </c>
-      <c r="AH10" s="561" t="s">
+      <c r="AH10" s="533" t="s">
         <v>31</v>
       </c>
-      <c r="AI10" s="562" t="s">
+      <c r="AI10" s="534" t="s">
         <v>4</v>
       </c>
-      <c r="AJ10" s="562" t="s">
+      <c r="AJ10" s="534" t="s">
         <v>32</v>
       </c>
-      <c r="AK10" s="562" t="s">
+      <c r="AK10" s="534" t="s">
         <v>75</v>
       </c>
       <c r="AM10" s="217">
@@ -5051,11 +5054,11 @@
       <c r="K11" s="481"/>
       <c r="L11" s="476"/>
       <c r="M11" s="448"/>
-      <c r="N11" s="513" t="s">
+      <c r="N11" s="575" t="s">
         <v>178</v>
       </c>
-      <c r="O11" s="514"/>
-      <c r="P11" s="514"/>
+      <c r="O11" s="576"/>
+      <c r="P11" s="576"/>
       <c r="Q11" s="500"/>
       <c r="R11" s="501" t="s">
         <v>177</v>
@@ -5100,14 +5103,14 @@
       <c r="AG11" s="508">
         <v>43466</v>
       </c>
-      <c r="AH11" s="563" t="s">
+      <c r="AH11" s="535" t="s">
         <v>189</v>
       </c>
-      <c r="AI11" s="563"/>
-      <c r="AJ11" s="564">
+      <c r="AI11" s="535"/>
+      <c r="AJ11" s="536">
         <v>800</v>
       </c>
-      <c r="AK11" s="564"/>
+      <c r="AK11" s="536"/>
       <c r="AM11" s="217">
         <v>43474</v>
       </c>
@@ -5198,14 +5201,14 @@
       </c>
       <c r="R12" s="469">
         <f>SUM(R14:R22)</f>
-        <v>3675</v>
+        <v>0</v>
       </c>
       <c r="S12" s="469" t="s">
         <v>174</v>
       </c>
       <c r="T12" s="471">
         <f>R12*1.3</f>
-        <v>4777.5</v>
+        <v>0</v>
       </c>
       <c r="V12" s="354" t="s">
         <v>20</v>
@@ -5232,16 +5235,16 @@
       <c r="AG12" s="508">
         <v>43469</v>
       </c>
-      <c r="AH12" s="563" t="s">
+      <c r="AH12" s="535" t="s">
         <v>187</v>
       </c>
-      <c r="AI12" s="563" t="s">
+      <c r="AI12" s="535" t="s">
         <v>188</v>
       </c>
-      <c r="AJ12" s="564">
+      <c r="AJ12" s="536">
         <v>5097</v>
       </c>
-      <c r="AK12" s="564">
+      <c r="AK12" s="536">
         <v>5097</v>
       </c>
       <c r="AM12" s="217">
@@ -5364,9 +5367,9 @@
       </c>
       <c r="AF13" s="188"/>
       <c r="AG13" s="508"/>
-      <c r="AH13" s="563"/>
-      <c r="AI13" s="563"/>
-      <c r="AJ13" s="564"/>
+      <c r="AH13" s="535"/>
+      <c r="AI13" s="535"/>
+      <c r="AJ13" s="536"/>
       <c r="AK13" s="164"/>
       <c r="AL13" s="190"/>
       <c r="AM13" s="217">
@@ -5442,18 +5445,22 @@
       <c r="N14" s="379">
         <v>43452</v>
       </c>
-      <c r="O14" s="584"/>
+      <c r="O14" s="590">
+        <v>43470</v>
+      </c>
       <c r="P14" s="461" t="s">
         <v>167</v>
       </c>
       <c r="Q14" s="485">
-        <v>119</v>
-      </c>
-      <c r="R14" s="584">
+        <v>118</v>
+      </c>
+      <c r="R14" s="555">
         <f>Q14-(SUM(S14,T14))</f>
-        <v>119</v>
-      </c>
-      <c r="S14" s="587"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="557">
+        <v>118</v>
+      </c>
       <c r="T14" s="495"/>
       <c r="V14" s="73">
         <v>43417</v>
@@ -5478,9 +5485,9 @@
       </c>
       <c r="AF14" s="188"/>
       <c r="AG14" s="508"/>
-      <c r="AH14" s="563"/>
-      <c r="AI14" s="563"/>
-      <c r="AJ14" s="564"/>
+      <c r="AH14" s="535"/>
+      <c r="AI14" s="535"/>
+      <c r="AJ14" s="536"/>
       <c r="AK14" s="164"/>
       <c r="AM14" s="217">
         <v>43477</v>
@@ -5555,18 +5562,22 @@
       <c r="N15" s="322">
         <v>43452</v>
       </c>
-      <c r="O15" s="585"/>
+      <c r="O15" s="590">
+        <v>43470</v>
+      </c>
       <c r="P15" s="462" t="s">
         <v>168</v>
       </c>
       <c r="Q15" s="270">
-        <v>226</v>
-      </c>
-      <c r="R15" s="584">
+        <v>226.8</v>
+      </c>
+      <c r="R15" s="555">
         <f t="shared" ref="R15:R19" si="8">Q15-(SUM(S15,T15))</f>
-        <v>226</v>
-      </c>
-      <c r="S15" s="588"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="558">
+        <v>226.8</v>
+      </c>
       <c r="T15" s="496"/>
       <c r="V15" s="73">
         <v>43117</v>
@@ -5591,9 +5602,9 @@
       </c>
       <c r="AF15" s="188"/>
       <c r="AG15" s="508"/>
-      <c r="AH15" s="563"/>
-      <c r="AI15" s="563"/>
-      <c r="AJ15" s="564"/>
+      <c r="AH15" s="535"/>
+      <c r="AI15" s="535"/>
+      <c r="AJ15" s="536"/>
       <c r="AK15" s="164"/>
       <c r="AM15" s="217">
         <v>43478</v>
@@ -5668,18 +5679,22 @@
       <c r="N16" s="322">
         <v>43454</v>
       </c>
-      <c r="O16" s="585"/>
+      <c r="O16" s="590">
+        <v>43470</v>
+      </c>
       <c r="P16" s="462" t="s">
         <v>166</v>
       </c>
       <c r="Q16" s="270">
-        <v>749</v>
-      </c>
-      <c r="R16" s="584">
+        <v>749.4</v>
+      </c>
+      <c r="R16" s="555">
         <f t="shared" si="8"/>
-        <v>749</v>
-      </c>
-      <c r="S16" s="588"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="558">
+        <v>749.4</v>
+      </c>
       <c r="T16" s="496"/>
       <c r="V16" s="73">
         <v>43236</v>
@@ -5704,9 +5719,9 @@
       </c>
       <c r="AF16" s="188"/>
       <c r="AG16" s="508"/>
-      <c r="AH16" s="565"/>
-      <c r="AI16" s="565"/>
-      <c r="AJ16" s="564"/>
+      <c r="AH16" s="561"/>
+      <c r="AI16" s="561"/>
+      <c r="AJ16" s="536"/>
       <c r="AK16" s="164"/>
       <c r="AM16" s="217">
         <v>43479</v>
@@ -5783,18 +5798,22 @@
       <c r="N17" s="322">
         <v>43454</v>
       </c>
-      <c r="O17" s="585"/>
+      <c r="O17" s="590">
+        <v>43470</v>
+      </c>
       <c r="P17" s="462" t="s">
         <v>169</v>
       </c>
       <c r="Q17" s="270">
         <v>131</v>
       </c>
-      <c r="R17" s="584">
+      <c r="R17" s="555">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="558">
         <v>131</v>
       </c>
-      <c r="S17" s="588"/>
       <c r="T17" s="496"/>
       <c r="V17" s="73">
         <v>43253</v>
@@ -5819,9 +5838,9 @@
       </c>
       <c r="AF17" s="188"/>
       <c r="AG17" s="508"/>
-      <c r="AH17" s="563"/>
-      <c r="AI17" s="563"/>
-      <c r="AJ17" s="564"/>
+      <c r="AH17" s="535"/>
+      <c r="AI17" s="535"/>
+      <c r="AJ17" s="536"/>
       <c r="AK17" s="164"/>
       <c r="AM17" s="217">
         <v>43480</v>
@@ -5898,18 +5917,22 @@
       <c r="N18" s="326">
         <v>43455</v>
       </c>
-      <c r="O18" s="586"/>
+      <c r="O18" s="590">
+        <v>43470</v>
+      </c>
       <c r="P18" s="506" t="s">
         <v>179</v>
       </c>
       <c r="Q18" s="484">
         <v>1000</v>
       </c>
-      <c r="R18" s="538">
+      <c r="R18" s="510">
         <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="559">
         <v>1000</v>
       </c>
-      <c r="S18" s="589"/>
       <c r="T18" s="507"/>
       <c r="V18" s="73">
         <v>43269</v>
@@ -5934,9 +5957,9 @@
       </c>
       <c r="AF18" s="191"/>
       <c r="AG18" s="508"/>
-      <c r="AH18" s="563"/>
-      <c r="AI18" s="563"/>
-      <c r="AJ18" s="564"/>
+      <c r="AH18" s="535"/>
+      <c r="AI18" s="535"/>
+      <c r="AJ18" s="536"/>
       <c r="AK18" s="164"/>
       <c r="AM18" s="217">
         <v>43481</v>
@@ -6014,18 +6037,22 @@
       <c r="N19" s="326">
         <v>43460</v>
       </c>
-      <c r="O19" s="586"/>
+      <c r="O19" s="590">
+        <v>43470</v>
+      </c>
       <c r="P19" s="506" t="s">
         <v>180</v>
       </c>
       <c r="Q19" s="484">
-        <v>413</v>
-      </c>
-      <c r="R19" s="538">
+        <v>413.5</v>
+      </c>
+      <c r="R19" s="510">
         <f t="shared" si="8"/>
-        <v>413</v>
-      </c>
-      <c r="S19" s="589"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="559">
+        <v>413.5</v>
+      </c>
       <c r="T19" s="507"/>
       <c r="V19" s="73">
         <v>43274</v>
@@ -6050,9 +6077,9 @@
       </c>
       <c r="AF19" s="191"/>
       <c r="AG19" s="508"/>
-      <c r="AH19" s="565"/>
-      <c r="AI19" s="565"/>
-      <c r="AJ19" s="564"/>
+      <c r="AH19" s="561"/>
+      <c r="AI19" s="561"/>
+      <c r="AJ19" s="536"/>
       <c r="AK19" s="164"/>
       <c r="AM19" s="217">
         <v>43482</v>
@@ -6121,26 +6148,30 @@
       </c>
       <c r="G20" s="324"/>
       <c r="H20" s="325"/>
-      <c r="I20" s="539"/>
+      <c r="I20" s="511"/>
       <c r="J20" s="484"/>
-      <c r="K20" s="540"/>
+      <c r="K20" s="512"/>
       <c r="L20" s="483"/>
       <c r="M20" s="449"/>
       <c r="N20" s="322">
         <v>43460</v>
       </c>
-      <c r="O20" s="585"/>
+      <c r="O20" s="590">
+        <v>43470</v>
+      </c>
       <c r="P20" s="462" t="s">
         <v>167</v>
       </c>
       <c r="Q20" s="270">
-        <v>225</v>
-      </c>
-      <c r="R20" s="585">
+        <v>238</v>
+      </c>
+      <c r="R20" s="556">
         <f t="shared" ref="R20" si="9">Q20-(SUM(S20,T20))</f>
-        <v>225</v>
-      </c>
-      <c r="S20" s="588"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="558">
+        <v>238</v>
+      </c>
       <c r="T20" s="496"/>
       <c r="V20" s="73">
         <v>43280</v>
@@ -6165,9 +6196,9 @@
       </c>
       <c r="AF20" s="191"/>
       <c r="AG20" s="508"/>
-      <c r="AH20" s="563"/>
-      <c r="AI20" s="563"/>
-      <c r="AJ20" s="564"/>
+      <c r="AH20" s="535"/>
+      <c r="AI20" s="535"/>
+      <c r="AJ20" s="536"/>
       <c r="AK20" s="165"/>
       <c r="AM20" s="217">
         <v>43483</v>
@@ -6221,8 +6252,8 @@
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
       <c r="E21" s="59"/>
-      <c r="G21" s="541"/>
-      <c r="H21" s="542"/>
+      <c r="G21" s="513"/>
+      <c r="H21" s="514"/>
       <c r="I21" s="451"/>
       <c r="J21" s="451"/>
       <c r="K21" s="451"/>
@@ -6231,18 +6262,22 @@
       <c r="N21" s="322">
         <v>43469</v>
       </c>
-      <c r="O21" s="585"/>
+      <c r="O21" s="590">
+        <v>43470</v>
+      </c>
       <c r="P21" s="462" t="s">
         <v>184</v>
       </c>
       <c r="Q21" s="270">
-        <v>702</v>
-      </c>
-      <c r="R21" s="585">
+        <v>689</v>
+      </c>
+      <c r="R21" s="556">
         <f t="shared" ref="R21" si="10">Q21-(SUM(S21,T21))</f>
-        <v>702</v>
-      </c>
-      <c r="S21" s="588"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="558">
+        <v>689</v>
+      </c>
       <c r="T21" s="496"/>
       <c r="V21" s="73">
         <v>43299</v>
@@ -6267,9 +6302,9 @@
       </c>
       <c r="AF21" s="191"/>
       <c r="AG21" s="508"/>
-      <c r="AH21" s="563"/>
-      <c r="AI21" s="563"/>
-      <c r="AJ21" s="564"/>
+      <c r="AH21" s="535"/>
+      <c r="AI21" s="535"/>
+      <c r="AJ21" s="536"/>
       <c r="AK21" s="165"/>
       <c r="AM21" s="217">
         <v>43484</v>
@@ -6323,28 +6358,32 @@
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
-      <c r="G22" s="543"/>
-      <c r="H22" s="544"/>
+      <c r="G22" s="515"/>
+      <c r="H22" s="516"/>
       <c r="I22" s="449"/>
-      <c r="J22" s="545"/>
+      <c r="J22" s="517"/>
       <c r="K22" s="449"/>
       <c r="L22" s="449"/>
       <c r="M22" s="449"/>
       <c r="N22" s="509">
         <v>43469</v>
       </c>
-      <c r="O22" s="459"/>
+      <c r="O22" s="591">
+        <v>43470</v>
+      </c>
       <c r="P22" s="463" t="s">
         <v>184</v>
       </c>
       <c r="Q22" s="480">
-        <v>110</v>
+        <v>110.24</v>
       </c>
       <c r="R22" s="459">
         <f t="shared" ref="R22" si="11">Q22-(SUM(S22,T22))</f>
-        <v>110</v>
-      </c>
-      <c r="S22" s="590"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="560">
+        <v>110.24</v>
+      </c>
       <c r="T22" s="497"/>
       <c r="V22" s="73">
         <v>43306</v>
@@ -6369,9 +6408,9 @@
       </c>
       <c r="AF22" s="191"/>
       <c r="AG22" s="508"/>
-      <c r="AH22" s="563"/>
-      <c r="AI22" s="563"/>
-      <c r="AJ22" s="564"/>
+      <c r="AH22" s="535"/>
+      <c r="AI22" s="535"/>
+      <c r="AJ22" s="536"/>
       <c r="AK22" s="164"/>
       <c r="AM22" s="217">
         <v>43485</v>
@@ -6425,8 +6464,8 @@
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
       <c r="E23" s="59"/>
-      <c r="G23" s="543"/>
-      <c r="H23" s="544"/>
+      <c r="G23" s="515"/>
+      <c r="H23" s="516"/>
       <c r="I23" s="449"/>
       <c r="J23" s="449"/>
       <c r="K23" s="449"/>
@@ -6444,7 +6483,7 @@
       </c>
       <c r="T23" s="456">
         <f>SUM(Q14:Q22)</f>
-        <v>3675</v>
+        <v>3675.9399999999996</v>
       </c>
       <c r="V23" s="73">
         <v>43312</v>
@@ -6469,9 +6508,9 @@
       </c>
       <c r="AF23" s="191"/>
       <c r="AG23" s="508"/>
-      <c r="AH23" s="565"/>
-      <c r="AI23" s="565"/>
-      <c r="AJ23" s="564"/>
+      <c r="AH23" s="561"/>
+      <c r="AI23" s="561"/>
+      <c r="AJ23" s="536"/>
       <c r="AK23" s="164"/>
       <c r="AL23" s="192"/>
       <c r="AM23" s="217">
@@ -6526,10 +6565,10 @@
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
       <c r="E24" s="59"/>
-      <c r="G24" s="543"/>
-      <c r="H24" s="544"/>
+      <c r="G24" s="515"/>
+      <c r="H24" s="516"/>
       <c r="I24" s="449"/>
-      <c r="J24" s="545"/>
+      <c r="J24" s="517"/>
       <c r="K24" s="449"/>
       <c r="L24" s="449"/>
       <c r="M24" s="449"/>
@@ -6538,7 +6577,7 @@
       </c>
       <c r="O24" s="458">
         <f>SUM(S14:S22)+SUM(T14:T22)</f>
-        <v>0</v>
+        <v>3675.9399999999996</v>
       </c>
       <c r="P24" s="458"/>
       <c r="Q24" s="469" t="s">
@@ -6546,14 +6585,14 @@
       </c>
       <c r="R24" s="469">
         <f>SUM(R14:R22)</f>
-        <v>3675</v>
+        <v>0</v>
       </c>
       <c r="S24" s="469" t="s">
         <v>174</v>
       </c>
       <c r="T24" s="471">
         <f>R24*1.3</f>
-        <v>4777.5</v>
+        <v>0</v>
       </c>
       <c r="V24" s="73">
         <v>43331</v>
@@ -6578,9 +6617,9 @@
       </c>
       <c r="AF24" s="191"/>
       <c r="AG24" s="508"/>
-      <c r="AH24" s="565"/>
-      <c r="AI24" s="565"/>
-      <c r="AJ24" s="564"/>
+      <c r="AH24" s="561"/>
+      <c r="AI24" s="561"/>
+      <c r="AJ24" s="536"/>
       <c r="AK24" s="164"/>
       <c r="AM24" s="217">
         <v>43487</v>
@@ -6634,10 +6673,10 @@
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
       <c r="E25" s="59"/>
-      <c r="G25" s="543"/>
-      <c r="H25" s="544"/>
+      <c r="G25" s="515"/>
+      <c r="H25" s="516"/>
       <c r="I25" s="449"/>
-      <c r="J25" s="545"/>
+      <c r="J25" s="517"/>
       <c r="K25" s="449"/>
       <c r="L25" s="449"/>
       <c r="M25" s="449"/>
@@ -6671,9 +6710,9 @@
       </c>
       <c r="AF25" s="191"/>
       <c r="AG25" s="508"/>
-      <c r="AH25" s="565"/>
-      <c r="AI25" s="565"/>
-      <c r="AJ25" s="564"/>
+      <c r="AH25" s="561"/>
+      <c r="AI25" s="561"/>
+      <c r="AJ25" s="536"/>
       <c r="AK25" s="164"/>
       <c r="AM25" s="217">
         <v>43488</v>
@@ -6727,10 +6766,10 @@
       <c r="C26" s="59"/>
       <c r="D26" s="59"/>
       <c r="E26" s="59"/>
-      <c r="G26" s="543"/>
-      <c r="H26" s="544"/>
+      <c r="G26" s="515"/>
+      <c r="H26" s="516"/>
       <c r="I26" s="449"/>
-      <c r="J26" s="545"/>
+      <c r="J26" s="517"/>
       <c r="K26" s="449"/>
       <c r="L26" s="449"/>
       <c r="M26" s="449"/>
@@ -6764,9 +6803,9 @@
       </c>
       <c r="AF26" s="188"/>
       <c r="AG26" s="508"/>
-      <c r="AH26" s="563"/>
-      <c r="AI26" s="563"/>
-      <c r="AJ26" s="564"/>
+      <c r="AH26" s="535"/>
+      <c r="AI26" s="535"/>
+      <c r="AJ26" s="536"/>
       <c r="AK26" s="164"/>
       <c r="AM26" s="217">
         <v>43489</v>
@@ -6820,10 +6859,10 @@
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
-      <c r="G27" s="546"/>
-      <c r="H27" s="547"/>
+      <c r="G27" s="518"/>
+      <c r="H27" s="519"/>
       <c r="I27" s="448"/>
-      <c r="J27" s="545"/>
+      <c r="J27" s="517"/>
       <c r="K27" s="448"/>
       <c r="L27" s="448"/>
       <c r="M27" s="448"/>
@@ -6857,9 +6896,9 @@
       </c>
       <c r="AF27" s="189"/>
       <c r="AG27" s="508"/>
-      <c r="AH27" s="563"/>
-      <c r="AI27" s="563"/>
-      <c r="AJ27" s="564"/>
+      <c r="AH27" s="535"/>
+      <c r="AI27" s="535"/>
+      <c r="AJ27" s="536"/>
       <c r="AK27" s="164"/>
       <c r="AM27" s="217">
         <v>43490</v>
@@ -6913,8 +6952,8 @@
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
       <c r="E28" s="59"/>
-      <c r="G28" s="546"/>
-      <c r="H28" s="547"/>
+      <c r="G28" s="518"/>
+      <c r="H28" s="519"/>
       <c r="I28" s="448"/>
       <c r="J28" s="448"/>
       <c r="K28" s="448"/>
@@ -6951,9 +6990,9 @@
       </c>
       <c r="AF28" s="188"/>
       <c r="AG28" s="508"/>
-      <c r="AH28" s="563"/>
-      <c r="AI28" s="563"/>
-      <c r="AJ28" s="564"/>
+      <c r="AH28" s="535"/>
+      <c r="AI28" s="535"/>
+      <c r="AJ28" s="536"/>
       <c r="AK28" s="164"/>
       <c r="AM28" s="217">
         <v>43491</v>
@@ -7007,11 +7046,11 @@
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
       <c r="E29" s="59"/>
-      <c r="G29" s="543"/>
-      <c r="H29" s="544"/>
+      <c r="G29" s="515"/>
+      <c r="H29" s="516"/>
       <c r="I29" s="449"/>
-      <c r="J29" s="545"/>
-      <c r="K29" s="545"/>
+      <c r="J29" s="517"/>
+      <c r="K29" s="517"/>
       <c r="L29" s="449"/>
       <c r="M29" s="449"/>
       <c r="N29" s="451"/>
@@ -7044,9 +7083,9 @@
       </c>
       <c r="AF29" s="188"/>
       <c r="AG29" s="508"/>
-      <c r="AH29" s="565"/>
-      <c r="AI29" s="565"/>
-      <c r="AJ29" s="564"/>
+      <c r="AH29" s="561"/>
+      <c r="AI29" s="561"/>
+      <c r="AJ29" s="536"/>
       <c r="AK29" s="164"/>
       <c r="AM29" s="217">
         <v>43492</v>
@@ -7100,11 +7139,11 @@
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
       <c r="E30" s="59"/>
-      <c r="G30" s="543"/>
-      <c r="H30" s="544"/>
+      <c r="G30" s="515"/>
+      <c r="H30" s="516"/>
       <c r="I30" s="449"/>
-      <c r="J30" s="545"/>
-      <c r="K30" s="545"/>
+      <c r="J30" s="517"/>
+      <c r="K30" s="517"/>
       <c r="L30" s="449"/>
       <c r="M30" s="449"/>
       <c r="N30" s="449"/>
@@ -7137,9 +7176,9 @@
       </c>
       <c r="AF30" s="188"/>
       <c r="AG30" s="508"/>
-      <c r="AH30" s="563"/>
-      <c r="AI30" s="563"/>
-      <c r="AJ30" s="564"/>
+      <c r="AH30" s="535"/>
+      <c r="AI30" s="535"/>
+      <c r="AJ30" s="536"/>
       <c r="AK30" s="164"/>
       <c r="AM30" s="217">
         <v>43493</v>
@@ -7193,11 +7232,11 @@
       <c r="C31" s="59"/>
       <c r="D31" s="59"/>
       <c r="E31" s="59"/>
-      <c r="G31" s="543"/>
-      <c r="H31" s="544"/>
+      <c r="G31" s="515"/>
+      <c r="H31" s="516"/>
       <c r="I31" s="449"/>
-      <c r="J31" s="545"/>
-      <c r="K31" s="545"/>
+      <c r="J31" s="517"/>
+      <c r="K31" s="517"/>
       <c r="L31" s="449"/>
       <c r="M31" s="449"/>
       <c r="N31" s="449"/>
@@ -7230,9 +7269,9 @@
       </c>
       <c r="AF31" s="188"/>
       <c r="AG31" s="508"/>
-      <c r="AH31" s="563"/>
-      <c r="AI31" s="563"/>
-      <c r="AJ31" s="564"/>
+      <c r="AH31" s="535"/>
+      <c r="AI31" s="535"/>
+      <c r="AJ31" s="536"/>
       <c r="AK31" s="164"/>
       <c r="AM31" s="217">
         <v>43494</v>
@@ -7286,8 +7325,8 @@
       <c r="C32" s="59"/>
       <c r="D32" s="59"/>
       <c r="E32" s="59"/>
-      <c r="G32" s="546"/>
-      <c r="H32" s="547"/>
+      <c r="G32" s="518"/>
+      <c r="H32" s="519"/>
       <c r="I32" s="448"/>
       <c r="J32" s="448"/>
       <c r="K32" s="448"/>
@@ -7323,9 +7362,9 @@
       </c>
       <c r="AF32" s="191"/>
       <c r="AG32" s="508"/>
-      <c r="AH32" s="565"/>
-      <c r="AI32" s="565"/>
-      <c r="AJ32" s="564"/>
+      <c r="AH32" s="561"/>
+      <c r="AI32" s="561"/>
+      <c r="AJ32" s="536"/>
       <c r="AK32" s="164"/>
       <c r="AM32" s="217">
         <v>43495</v>
@@ -7379,11 +7418,11 @@
       <c r="C33" s="59"/>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
-      <c r="G33" s="543"/>
-      <c r="H33" s="544"/>
+      <c r="G33" s="515"/>
+      <c r="H33" s="516"/>
       <c r="I33" s="449"/>
-      <c r="J33" s="545"/>
-      <c r="K33" s="545"/>
+      <c r="J33" s="517"/>
+      <c r="K33" s="517"/>
       <c r="L33" s="449"/>
       <c r="M33" s="449"/>
       <c r="N33" s="449"/>
@@ -7423,9 +7462,9 @@
       </c>
       <c r="AF33" s="188"/>
       <c r="AG33" s="508"/>
-      <c r="AH33" s="563"/>
-      <c r="AI33" s="563"/>
-      <c r="AJ33" s="564"/>
+      <c r="AH33" s="535"/>
+      <c r="AI33" s="535"/>
+      <c r="AJ33" s="536"/>
       <c r="AK33" s="164"/>
       <c r="AM33" s="217">
         <v>43496</v>
@@ -7479,11 +7518,11 @@
       <c r="C34" s="59"/>
       <c r="D34" s="59"/>
       <c r="E34" s="59"/>
-      <c r="G34" s="543"/>
-      <c r="H34" s="544"/>
+      <c r="G34" s="515"/>
+      <c r="H34" s="516"/>
       <c r="I34" s="449"/>
-      <c r="J34" s="545"/>
-      <c r="K34" s="545"/>
+      <c r="J34" s="517"/>
+      <c r="K34" s="517"/>
       <c r="L34" s="449"/>
       <c r="M34" s="449"/>
       <c r="N34" s="449"/>
@@ -7514,9 +7553,9 @@
       </c>
       <c r="AF34" s="188"/>
       <c r="AG34" s="508"/>
-      <c r="AH34" s="563"/>
-      <c r="AI34" s="563"/>
-      <c r="AJ34" s="564"/>
+      <c r="AH34" s="535"/>
+      <c r="AI34" s="535"/>
+      <c r="AJ34" s="536"/>
       <c r="AK34" s="164"/>
       <c r="AM34" s="217">
         <v>43497</v>
@@ -7570,8 +7609,8 @@
       <c r="C35" s="59"/>
       <c r="D35" s="59"/>
       <c r="E35" s="59"/>
-      <c r="G35" s="541"/>
-      <c r="H35" s="542"/>
+      <c r="G35" s="513"/>
+      <c r="H35" s="514"/>
       <c r="I35" s="451"/>
       <c r="J35" s="451"/>
       <c r="K35" s="451"/>
@@ -7604,10 +7643,10 @@
         <v>1000</v>
       </c>
       <c r="AF35" s="188"/>
-      <c r="AG35" s="526"/>
-      <c r="AH35" s="527"/>
-      <c r="AI35" s="527"/>
-      <c r="AJ35" s="527"/>
+      <c r="AG35" s="588"/>
+      <c r="AH35" s="589"/>
+      <c r="AI35" s="589"/>
+      <c r="AJ35" s="589"/>
       <c r="AK35" s="437"/>
       <c r="AM35" s="217">
         <v>43498</v>
@@ -7661,11 +7700,11 @@
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
       <c r="E36" s="59"/>
-      <c r="G36" s="543"/>
-      <c r="H36" s="544"/>
+      <c r="G36" s="515"/>
+      <c r="H36" s="516"/>
       <c r="I36" s="449"/>
-      <c r="J36" s="545"/>
-      <c r="K36" s="545"/>
+      <c r="J36" s="517"/>
+      <c r="K36" s="517"/>
       <c r="L36" s="449"/>
       <c r="M36" s="449"/>
       <c r="N36" s="448"/>
@@ -7696,9 +7735,9 @@
       </c>
       <c r="AF36" s="188"/>
       <c r="AG36" s="508"/>
-      <c r="AH36" s="563"/>
-      <c r="AI36" s="563"/>
-      <c r="AJ36" s="564"/>
+      <c r="AH36" s="535"/>
+      <c r="AI36" s="535"/>
+      <c r="AJ36" s="536"/>
       <c r="AK36" s="164"/>
       <c r="AM36" s="217">
         <v>43499</v>
@@ -7752,11 +7791,11 @@
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
       <c r="E37" s="59"/>
-      <c r="G37" s="543"/>
-      <c r="H37" s="544"/>
+      <c r="G37" s="515"/>
+      <c r="H37" s="516"/>
       <c r="I37" s="449"/>
-      <c r="J37" s="545"/>
-      <c r="K37" s="545"/>
+      <c r="J37" s="517"/>
+      <c r="K37" s="517"/>
       <c r="L37" s="449"/>
       <c r="M37" s="449"/>
       <c r="N37" s="449"/>
@@ -7787,9 +7826,9 @@
       </c>
       <c r="AF37" s="191"/>
       <c r="AG37" s="508"/>
-      <c r="AH37" s="563"/>
-      <c r="AI37" s="563"/>
-      <c r="AJ37" s="564"/>
+      <c r="AH37" s="535"/>
+      <c r="AI37" s="535"/>
+      <c r="AJ37" s="536"/>
       <c r="AK37" s="164"/>
       <c r="AM37" s="217">
         <v>43500</v>
@@ -7843,11 +7882,11 @@
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
       <c r="E38" s="59"/>
-      <c r="G38" s="543"/>
-      <c r="H38" s="544"/>
+      <c r="G38" s="515"/>
+      <c r="H38" s="516"/>
       <c r="I38" s="449"/>
-      <c r="J38" s="545"/>
-      <c r="K38" s="545"/>
+      <c r="J38" s="517"/>
+      <c r="K38" s="517"/>
       <c r="L38" s="449"/>
       <c r="M38" s="449"/>
       <c r="N38" s="449"/>
@@ -7878,9 +7917,9 @@
       </c>
       <c r="AF38" s="188"/>
       <c r="AG38" s="508"/>
-      <c r="AH38" s="565"/>
-      <c r="AI38" s="565"/>
-      <c r="AJ38" s="564"/>
+      <c r="AH38" s="561"/>
+      <c r="AI38" s="561"/>
+      <c r="AJ38" s="536"/>
       <c r="AK38" s="164"/>
       <c r="AM38" s="217">
         <v>43501</v>
@@ -7934,11 +7973,11 @@
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
       <c r="E39" s="59"/>
-      <c r="G39" s="543"/>
-      <c r="H39" s="544"/>
+      <c r="G39" s="515"/>
+      <c r="H39" s="516"/>
       <c r="I39" s="449"/>
-      <c r="J39" s="545"/>
-      <c r="K39" s="545"/>
+      <c r="J39" s="517"/>
+      <c r="K39" s="517"/>
       <c r="L39" s="449"/>
       <c r="M39" s="449"/>
       <c r="N39" s="449"/>
@@ -7969,9 +8008,9 @@
       </c>
       <c r="AF39" s="189"/>
       <c r="AG39" s="508"/>
-      <c r="AH39" s="563"/>
-      <c r="AI39" s="563"/>
-      <c r="AJ39" s="564"/>
+      <c r="AH39" s="535"/>
+      <c r="AI39" s="535"/>
+      <c r="AJ39" s="536"/>
       <c r="AK39" s="164"/>
       <c r="AM39" s="217">
         <v>43502</v>
@@ -8025,11 +8064,11 @@
       <c r="C40" s="59"/>
       <c r="D40" s="59"/>
       <c r="E40" s="59"/>
-      <c r="G40" s="543"/>
-      <c r="H40" s="544"/>
+      <c r="G40" s="515"/>
+      <c r="H40" s="516"/>
       <c r="I40" s="449"/>
-      <c r="J40" s="545"/>
-      <c r="K40" s="545"/>
+      <c r="J40" s="517"/>
+      <c r="K40" s="517"/>
       <c r="L40" s="449"/>
       <c r="M40" s="449"/>
       <c r="N40" s="448"/>
@@ -8060,9 +8099,9 @@
       </c>
       <c r="AF40" s="191"/>
       <c r="AG40" s="508"/>
-      <c r="AH40" s="565"/>
-      <c r="AI40" s="565"/>
-      <c r="AJ40" s="564"/>
+      <c r="AH40" s="561"/>
+      <c r="AI40" s="561"/>
+      <c r="AJ40" s="536"/>
       <c r="AK40" s="164"/>
       <c r="AM40" s="217">
         <v>43503</v>
@@ -8116,8 +8155,8 @@
       <c r="C41" s="59"/>
       <c r="D41" s="59"/>
       <c r="E41" s="59"/>
-      <c r="G41" s="543"/>
-      <c r="H41" s="544"/>
+      <c r="G41" s="515"/>
+      <c r="H41" s="516"/>
       <c r="I41" s="449"/>
       <c r="J41" s="449"/>
       <c r="K41" s="449"/>
@@ -8151,9 +8190,9 @@
       </c>
       <c r="AF41" s="191"/>
       <c r="AG41" s="508"/>
-      <c r="AH41" s="563"/>
-      <c r="AI41" s="563"/>
-      <c r="AJ41" s="564"/>
+      <c r="AH41" s="535"/>
+      <c r="AI41" s="535"/>
+      <c r="AJ41" s="536"/>
       <c r="AK41" s="164"/>
       <c r="AM41" s="217">
         <v>43504</v>
@@ -8207,11 +8246,11 @@
       <c r="C42" s="59"/>
       <c r="D42" s="59"/>
       <c r="E42" s="59"/>
-      <c r="G42" s="543"/>
-      <c r="H42" s="544"/>
+      <c r="G42" s="515"/>
+      <c r="H42" s="516"/>
       <c r="I42" s="449"/>
-      <c r="J42" s="545"/>
-      <c r="K42" s="545"/>
+      <c r="J42" s="517"/>
+      <c r="K42" s="517"/>
       <c r="L42" s="449"/>
       <c r="M42" s="449"/>
       <c r="N42" s="449"/>
@@ -8242,9 +8281,9 @@
       </c>
       <c r="AF42" s="191"/>
       <c r="AG42" s="508"/>
-      <c r="AH42" s="563"/>
-      <c r="AI42" s="563"/>
-      <c r="AJ42" s="564"/>
+      <c r="AH42" s="535"/>
+      <c r="AI42" s="535"/>
+      <c r="AJ42" s="536"/>
       <c r="AK42" s="164"/>
       <c r="AM42" s="217">
         <v>43505</v>
@@ -8298,11 +8337,11 @@
       <c r="C43" s="59"/>
       <c r="D43" s="59"/>
       <c r="E43" s="59"/>
-      <c r="G43" s="548"/>
-      <c r="H43" s="544"/>
+      <c r="G43" s="520"/>
+      <c r="H43" s="516"/>
       <c r="I43" s="449"/>
-      <c r="J43" s="545"/>
-      <c r="K43" s="545"/>
+      <c r="J43" s="517"/>
+      <c r="K43" s="517"/>
       <c r="L43" s="449"/>
       <c r="M43" s="449"/>
       <c r="N43" s="451"/>
@@ -8333,9 +8372,9 @@
       </c>
       <c r="AF43" s="188"/>
       <c r="AG43" s="508"/>
-      <c r="AH43" s="563"/>
-      <c r="AI43" s="563"/>
-      <c r="AJ43" s="564"/>
+      <c r="AH43" s="535"/>
+      <c r="AI43" s="535"/>
+      <c r="AJ43" s="536"/>
       <c r="AK43" s="164"/>
       <c r="AM43" s="217">
         <v>43506</v>
@@ -8389,8 +8428,8 @@
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
       <c r="E44" s="59"/>
-      <c r="G44" s="543"/>
-      <c r="H44" s="544"/>
+      <c r="G44" s="515"/>
+      <c r="H44" s="516"/>
       <c r="I44" s="449"/>
       <c r="J44" s="449"/>
       <c r="K44" s="449"/>
@@ -8424,9 +8463,9 @@
       </c>
       <c r="AF44" s="189"/>
       <c r="AG44" s="508"/>
-      <c r="AH44" s="563"/>
-      <c r="AI44" s="563"/>
-      <c r="AJ44" s="564"/>
+      <c r="AH44" s="535"/>
+      <c r="AI44" s="535"/>
+      <c r="AJ44" s="536"/>
       <c r="AK44" s="164"/>
       <c r="AM44" s="217">
         <v>43507</v>
@@ -8480,11 +8519,11 @@
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
       <c r="E45" s="59"/>
-      <c r="G45" s="543"/>
-      <c r="H45" s="544"/>
+      <c r="G45" s="515"/>
+      <c r="H45" s="516"/>
       <c r="I45" s="449"/>
-      <c r="J45" s="545"/>
-      <c r="K45" s="545"/>
+      <c r="J45" s="517"/>
+      <c r="K45" s="517"/>
       <c r="L45" s="449"/>
       <c r="M45" s="449"/>
       <c r="N45" s="449"/>
@@ -8526,9 +8565,9 @@
       </c>
       <c r="AF45" s="190"/>
       <c r="AG45" s="508"/>
-      <c r="AH45" s="563"/>
-      <c r="AI45" s="563"/>
-      <c r="AJ45" s="564"/>
+      <c r="AH45" s="535"/>
+      <c r="AI45" s="535"/>
+      <c r="AJ45" s="536"/>
       <c r="AK45" s="164"/>
       <c r="AM45" s="217">
         <v>43508</v>
@@ -8583,11 +8622,11 @@
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
       <c r="E46" s="59"/>
-      <c r="G46" s="543"/>
-      <c r="H46" s="544"/>
+      <c r="G46" s="515"/>
+      <c r="H46" s="516"/>
       <c r="I46" s="449"/>
-      <c r="J46" s="545"/>
-      <c r="K46" s="545"/>
+      <c r="J46" s="517"/>
+      <c r="K46" s="517"/>
       <c r="L46" s="449"/>
       <c r="M46" s="449"/>
       <c r="N46" s="449"/>
@@ -8620,9 +8659,9 @@
       </c>
       <c r="AF46" s="190"/>
       <c r="AG46" s="508"/>
-      <c r="AH46" s="563"/>
-      <c r="AI46" s="563"/>
-      <c r="AJ46" s="564"/>
+      <c r="AH46" s="535"/>
+      <c r="AI46" s="535"/>
+      <c r="AJ46" s="536"/>
       <c r="AK46" s="166"/>
       <c r="AM46" s="217">
         <v>43509</v>
@@ -8676,11 +8715,11 @@
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
       <c r="E47" s="59"/>
-      <c r="G47" s="549"/>
-      <c r="H47" s="550"/>
+      <c r="G47" s="521"/>
+      <c r="H47" s="522"/>
       <c r="I47" s="450"/>
-      <c r="J47" s="545"/>
-      <c r="K47" s="545"/>
+      <c r="J47" s="517"/>
+      <c r="K47" s="517"/>
       <c r="L47" s="450"/>
       <c r="M47" s="450"/>
       <c r="N47" s="449"/>
@@ -8713,9 +8752,9 @@
       </c>
       <c r="AF47" s="190"/>
       <c r="AG47" s="508"/>
-      <c r="AH47" s="563"/>
-      <c r="AI47" s="563"/>
-      <c r="AJ47" s="567"/>
+      <c r="AH47" s="535"/>
+      <c r="AI47" s="535"/>
+      <c r="AJ47" s="538"/>
       <c r="AK47" s="164"/>
       <c r="AM47" s="217">
         <v>43510</v>
@@ -8769,8 +8808,8 @@
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
       <c r="E48" s="59"/>
-      <c r="G48" s="541"/>
-      <c r="H48" s="542"/>
+      <c r="G48" s="513"/>
+      <c r="H48" s="514"/>
       <c r="I48" s="451"/>
       <c r="J48" s="451"/>
       <c r="K48" s="451"/>
@@ -8806,9 +8845,9 @@
       </c>
       <c r="AF48" s="190"/>
       <c r="AG48" s="508"/>
-      <c r="AH48" s="563"/>
-      <c r="AI48" s="563"/>
-      <c r="AJ48" s="564"/>
+      <c r="AH48" s="535"/>
+      <c r="AI48" s="535"/>
+      <c r="AJ48" s="536"/>
       <c r="AK48" s="164"/>
       <c r="AM48" s="217">
         <v>43511</v>
@@ -8862,11 +8901,11 @@
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
       <c r="E49" s="59"/>
-      <c r="G49" s="546"/>
-      <c r="H49" s="547"/>
+      <c r="G49" s="518"/>
+      <c r="H49" s="519"/>
       <c r="I49" s="448"/>
-      <c r="J49" s="545"/>
-      <c r="K49" s="545"/>
+      <c r="J49" s="517"/>
+      <c r="K49" s="517"/>
       <c r="L49" s="448"/>
       <c r="M49" s="448"/>
       <c r="N49" s="449"/>
@@ -8894,9 +8933,9 @@
       <c r="AE49" s="442"/>
       <c r="AF49" s="190"/>
       <c r="AG49" s="508"/>
-      <c r="AH49" s="563"/>
-      <c r="AI49" s="563"/>
-      <c r="AJ49" s="564"/>
+      <c r="AH49" s="535"/>
+      <c r="AI49" s="535"/>
+      <c r="AJ49" s="536"/>
       <c r="AK49" s="164"/>
       <c r="AM49" s="217">
         <v>43512</v>
@@ -8950,11 +8989,11 @@
       <c r="C50" s="59"/>
       <c r="D50" s="59"/>
       <c r="E50" s="59"/>
-      <c r="G50" s="546"/>
-      <c r="H50" s="547"/>
+      <c r="G50" s="518"/>
+      <c r="H50" s="519"/>
       <c r="I50" s="448"/>
-      <c r="J50" s="545"/>
-      <c r="K50" s="545"/>
+      <c r="J50" s="517"/>
+      <c r="K50" s="517"/>
       <c r="L50" s="448"/>
       <c r="M50" s="448"/>
       <c r="N50" s="449"/>
@@ -8987,9 +9026,9 @@
       </c>
       <c r="AF50" s="190"/>
       <c r="AG50" s="508"/>
-      <c r="AH50" s="563"/>
-      <c r="AI50" s="563"/>
-      <c r="AJ50" s="564"/>
+      <c r="AH50" s="535"/>
+      <c r="AI50" s="535"/>
+      <c r="AJ50" s="536"/>
       <c r="AK50" s="164"/>
       <c r="AM50" s="217">
         <v>43513</v>
@@ -9043,11 +9082,11 @@
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
       <c r="E51" s="59"/>
-      <c r="G51" s="546"/>
-      <c r="H51" s="547"/>
+      <c r="G51" s="518"/>
+      <c r="H51" s="519"/>
       <c r="I51" s="448"/>
-      <c r="J51" s="545"/>
-      <c r="K51" s="545"/>
+      <c r="J51" s="517"/>
+      <c r="K51" s="517"/>
       <c r="L51" s="448"/>
       <c r="M51" s="448"/>
       <c r="N51" s="449"/>
@@ -9093,9 +9132,9 @@
       </c>
       <c r="AF51" s="194"/>
       <c r="AG51" s="508"/>
-      <c r="AH51" s="563"/>
-      <c r="AI51" s="563"/>
-      <c r="AJ51" s="564"/>
+      <c r="AH51" s="535"/>
+      <c r="AI51" s="535"/>
+      <c r="AJ51" s="536"/>
       <c r="AK51" s="164"/>
       <c r="AM51" s="217">
         <v>43514</v>
@@ -9149,11 +9188,11 @@
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
       <c r="E52" s="59"/>
-      <c r="G52" s="546"/>
-      <c r="H52" s="547"/>
+      <c r="G52" s="518"/>
+      <c r="H52" s="519"/>
       <c r="I52" s="448"/>
-      <c r="J52" s="545"/>
-      <c r="K52" s="545"/>
+      <c r="J52" s="517"/>
+      <c r="K52" s="517"/>
       <c r="L52" s="448"/>
       <c r="M52" s="448"/>
       <c r="N52" s="449"/>
@@ -9186,9 +9225,9 @@
       </c>
       <c r="AF52" s="190"/>
       <c r="AG52" s="508"/>
-      <c r="AH52" s="563"/>
-      <c r="AI52" s="563"/>
-      <c r="AJ52" s="564"/>
+      <c r="AH52" s="535"/>
+      <c r="AI52" s="535"/>
+      <c r="AJ52" s="536"/>
       <c r="AK52" s="164"/>
       <c r="AM52" s="217">
         <v>43515</v>
@@ -9242,11 +9281,11 @@
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
       <c r="E53" s="59"/>
-      <c r="G53" s="546"/>
-      <c r="H53" s="547"/>
+      <c r="G53" s="518"/>
+      <c r="H53" s="519"/>
       <c r="I53" s="448"/>
-      <c r="J53" s="545"/>
-      <c r="K53" s="545"/>
+      <c r="J53" s="517"/>
+      <c r="K53" s="517"/>
       <c r="L53" s="448"/>
       <c r="M53" s="448"/>
       <c r="N53" s="449"/>
@@ -9279,9 +9318,9 @@
       </c>
       <c r="AF53" s="190"/>
       <c r="AG53" s="508"/>
-      <c r="AH53" s="563"/>
-      <c r="AI53" s="563"/>
-      <c r="AJ53" s="564"/>
+      <c r="AH53" s="535"/>
+      <c r="AI53" s="535"/>
+      <c r="AJ53" s="536"/>
       <c r="AK53" s="164"/>
       <c r="AM53" s="217">
         <v>43516</v>
@@ -9335,11 +9374,11 @@
       <c r="C54" s="59"/>
       <c r="D54" s="59"/>
       <c r="E54" s="59"/>
-      <c r="G54" s="549"/>
-      <c r="H54" s="550"/>
+      <c r="G54" s="521"/>
+      <c r="H54" s="522"/>
       <c r="I54" s="450"/>
-      <c r="J54" s="545"/>
-      <c r="K54" s="545"/>
+      <c r="J54" s="517"/>
+      <c r="K54" s="517"/>
       <c r="L54" s="450"/>
       <c r="M54" s="450"/>
       <c r="N54" s="449"/>
@@ -9370,9 +9409,9 @@
       </c>
       <c r="AF54" s="190"/>
       <c r="AG54" s="508"/>
-      <c r="AH54" s="563"/>
-      <c r="AI54" s="563"/>
-      <c r="AJ54" s="564"/>
+      <c r="AH54" s="535"/>
+      <c r="AI54" s="535"/>
+      <c r="AJ54" s="536"/>
       <c r="AK54" s="164"/>
       <c r="AM54" s="217">
         <v>43517</v>
@@ -9426,11 +9465,11 @@
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
       <c r="E55" s="59"/>
-      <c r="G55" s="549"/>
-      <c r="H55" s="550"/>
+      <c r="G55" s="521"/>
+      <c r="H55" s="522"/>
       <c r="I55" s="450"/>
-      <c r="J55" s="545"/>
-      <c r="K55" s="545"/>
+      <c r="J55" s="517"/>
+      <c r="K55" s="517"/>
       <c r="L55" s="450"/>
       <c r="M55" s="450"/>
       <c r="N55" s="450"/>
@@ -9467,9 +9506,9 @@
       </c>
       <c r="AF55" s="190"/>
       <c r="AG55" s="508"/>
-      <c r="AH55" s="563"/>
-      <c r="AI55" s="563"/>
-      <c r="AJ55" s="564"/>
+      <c r="AH55" s="535"/>
+      <c r="AI55" s="535"/>
+      <c r="AJ55" s="536"/>
       <c r="AK55" s="164"/>
       <c r="AM55" s="217">
         <v>43518</v>
@@ -9523,11 +9562,11 @@
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
       <c r="E56" s="59"/>
-      <c r="G56" s="549"/>
-      <c r="H56" s="550"/>
+      <c r="G56" s="521"/>
+      <c r="H56" s="522"/>
       <c r="I56" s="450"/>
-      <c r="J56" s="545"/>
-      <c r="K56" s="545"/>
+      <c r="J56" s="517"/>
+      <c r="K56" s="517"/>
       <c r="L56" s="450"/>
       <c r="M56" s="450"/>
       <c r="N56" s="451"/>
@@ -9558,9 +9597,9 @@
       </c>
       <c r="AF56" s="190"/>
       <c r="AG56" s="508"/>
-      <c r="AH56" s="563"/>
-      <c r="AI56" s="563"/>
-      <c r="AJ56" s="564"/>
+      <c r="AH56" s="535"/>
+      <c r="AI56" s="535"/>
+      <c r="AJ56" s="536"/>
       <c r="AK56" s="164"/>
       <c r="AM56" s="217">
         <v>43519</v>
@@ -9614,11 +9653,11 @@
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
       <c r="E57" s="59"/>
-      <c r="G57" s="549"/>
-      <c r="H57" s="550"/>
+      <c r="G57" s="521"/>
+      <c r="H57" s="522"/>
       <c r="I57" s="450"/>
-      <c r="J57" s="545"/>
-      <c r="K57" s="545"/>
+      <c r="J57" s="517"/>
+      <c r="K57" s="517"/>
       <c r="L57" s="450"/>
       <c r="M57" s="450"/>
       <c r="N57" s="448"/>
@@ -9653,9 +9692,9 @@
       </c>
       <c r="AF57" s="190"/>
       <c r="AG57" s="508"/>
-      <c r="AH57" s="563"/>
-      <c r="AI57" s="563"/>
-      <c r="AJ57" s="564"/>
+      <c r="AH57" s="535"/>
+      <c r="AI57" s="535"/>
+      <c r="AJ57" s="536"/>
       <c r="AK57" s="164"/>
       <c r="AM57" s="217">
         <v>43520</v>
@@ -9709,8 +9748,8 @@
       <c r="C58" s="59"/>
       <c r="D58" s="59"/>
       <c r="E58" s="59"/>
-      <c r="G58" s="541"/>
-      <c r="H58" s="542"/>
+      <c r="G58" s="513"/>
+      <c r="H58" s="514"/>
       <c r="I58" s="451"/>
       <c r="J58" s="451"/>
       <c r="K58" s="451"/>
@@ -9735,9 +9774,9 @@
       <c r="AE58" s="117"/>
       <c r="AF58" s="190"/>
       <c r="AG58" s="508"/>
-      <c r="AH58" s="563"/>
-      <c r="AI58" s="563"/>
-      <c r="AJ58" s="564"/>
+      <c r="AH58" s="535"/>
+      <c r="AI58" s="535"/>
+      <c r="AJ58" s="536"/>
       <c r="AK58" s="164"/>
       <c r="AM58" s="217">
         <v>43521</v>
@@ -9791,8 +9830,8 @@
       <c r="C59" s="59"/>
       <c r="D59" s="59"/>
       <c r="E59" s="59"/>
-      <c r="G59" s="549"/>
-      <c r="H59" s="550"/>
+      <c r="G59" s="521"/>
+      <c r="H59" s="522"/>
       <c r="I59" s="450"/>
       <c r="J59" s="450"/>
       <c r="K59" s="450"/>
@@ -9817,9 +9856,9 @@
       <c r="AE59" s="117"/>
       <c r="AF59" s="190"/>
       <c r="AG59" s="508"/>
-      <c r="AH59" s="563"/>
-      <c r="AI59" s="563"/>
-      <c r="AJ59" s="564"/>
+      <c r="AH59" s="535"/>
+      <c r="AI59" s="535"/>
+      <c r="AJ59" s="536"/>
       <c r="AK59" s="164"/>
       <c r="AM59" s="217">
         <v>43522</v>
@@ -9873,8 +9912,8 @@
       <c r="C60" s="59"/>
       <c r="D60" s="59"/>
       <c r="E60" s="59"/>
-      <c r="G60" s="543"/>
-      <c r="H60" s="544"/>
+      <c r="G60" s="515"/>
+      <c r="H60" s="516"/>
       <c r="I60" s="449"/>
       <c r="J60" s="449"/>
       <c r="K60" s="449"/>
@@ -9899,9 +9938,9 @@
       <c r="AE60" s="117"/>
       <c r="AF60" s="190"/>
       <c r="AG60" s="508"/>
-      <c r="AH60" s="563"/>
-      <c r="AI60" s="563"/>
-      <c r="AJ60" s="564"/>
+      <c r="AH60" s="535"/>
+      <c r="AI60" s="535"/>
+      <c r="AJ60" s="536"/>
       <c r="AK60" s="164"/>
       <c r="AM60" s="217">
         <v>43523</v>
@@ -9955,8 +9994,8 @@
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
       <c r="E61" s="59"/>
-      <c r="G61" s="543"/>
-      <c r="H61" s="544"/>
+      <c r="G61" s="515"/>
+      <c r="H61" s="516"/>
       <c r="I61" s="449"/>
       <c r="J61" s="449"/>
       <c r="K61" s="449"/>
@@ -9981,9 +10020,9 @@
       <c r="AE61" s="117"/>
       <c r="AF61" s="190"/>
       <c r="AG61" s="508"/>
-      <c r="AH61" s="563"/>
-      <c r="AI61" s="563"/>
-      <c r="AJ61" s="566"/>
+      <c r="AH61" s="535"/>
+      <c r="AI61" s="535"/>
+      <c r="AJ61" s="537"/>
       <c r="AK61" s="165"/>
       <c r="AM61" s="217">
         <v>43524</v>
@@ -10037,8 +10076,8 @@
       <c r="C62" s="59"/>
       <c r="D62" s="59"/>
       <c r="E62" s="59"/>
-      <c r="G62" s="543"/>
-      <c r="H62" s="544"/>
+      <c r="G62" s="515"/>
+      <c r="H62" s="516"/>
       <c r="I62" s="449"/>
       <c r="J62" s="449"/>
       <c r="K62" s="449"/>
@@ -10063,9 +10102,9 @@
       <c r="AE62" s="117"/>
       <c r="AF62" s="190"/>
       <c r="AG62" s="508"/>
-      <c r="AH62" s="563"/>
-      <c r="AI62" s="563"/>
-      <c r="AJ62" s="564"/>
+      <c r="AH62" s="535"/>
+      <c r="AI62" s="535"/>
+      <c r="AJ62" s="536"/>
       <c r="AK62" s="164"/>
       <c r="AM62" s="217">
         <v>43525</v>
@@ -10119,11 +10158,11 @@
       <c r="C63" s="59"/>
       <c r="D63" s="59"/>
       <c r="E63" s="59"/>
-      <c r="G63" s="546"/>
-      <c r="H63" s="547"/>
+      <c r="G63" s="518"/>
+      <c r="H63" s="519"/>
       <c r="I63" s="448"/>
-      <c r="J63" s="545"/>
-      <c r="K63" s="545"/>
+      <c r="J63" s="517"/>
+      <c r="K63" s="517"/>
       <c r="L63" s="448"/>
       <c r="M63" s="448"/>
       <c r="N63" s="450"/>
@@ -10145,9 +10184,9 @@
       <c r="AE63" s="117"/>
       <c r="AF63" s="190"/>
       <c r="AG63" s="508"/>
-      <c r="AH63" s="563"/>
-      <c r="AI63" s="563"/>
-      <c r="AJ63" s="564"/>
+      <c r="AH63" s="535"/>
+      <c r="AI63" s="535"/>
+      <c r="AJ63" s="536"/>
       <c r="AK63" s="164"/>
       <c r="AM63" s="217">
         <v>43526</v>
@@ -10201,11 +10240,11 @@
       <c r="C64" s="59"/>
       <c r="D64" s="59"/>
       <c r="E64" s="59"/>
-      <c r="G64" s="546"/>
-      <c r="H64" s="547"/>
+      <c r="G64" s="518"/>
+      <c r="H64" s="519"/>
       <c r="I64" s="448"/>
-      <c r="J64" s="545"/>
-      <c r="K64" s="545"/>
+      <c r="J64" s="517"/>
+      <c r="K64" s="517"/>
       <c r="L64" s="448"/>
       <c r="M64" s="448"/>
       <c r="N64" s="450"/>
@@ -10227,9 +10266,9 @@
       <c r="AE64" s="117"/>
       <c r="AF64" s="190"/>
       <c r="AG64" s="508"/>
-      <c r="AH64" s="563"/>
-      <c r="AI64" s="563"/>
-      <c r="AJ64" s="564"/>
+      <c r="AH64" s="535"/>
+      <c r="AI64" s="535"/>
+      <c r="AJ64" s="536"/>
       <c r="AK64" s="164"/>
       <c r="AM64" s="217">
         <v>43527</v>
@@ -10283,11 +10322,11 @@
       <c r="C65" s="59"/>
       <c r="D65" s="59"/>
       <c r="E65" s="59"/>
-      <c r="G65" s="546"/>
-      <c r="H65" s="547"/>
+      <c r="G65" s="518"/>
+      <c r="H65" s="519"/>
       <c r="I65" s="448"/>
-      <c r="J65" s="545"/>
-      <c r="K65" s="545"/>
+      <c r="J65" s="517"/>
+      <c r="K65" s="517"/>
       <c r="L65" s="448"/>
       <c r="M65" s="448"/>
       <c r="N65" s="450"/>
@@ -10309,9 +10348,9 @@
       <c r="AE65" s="117"/>
       <c r="AF65" s="190"/>
       <c r="AG65" s="508"/>
-      <c r="AH65" s="563"/>
-      <c r="AI65" s="563"/>
-      <c r="AJ65" s="564"/>
+      <c r="AH65" s="535"/>
+      <c r="AI65" s="535"/>
+      <c r="AJ65" s="536"/>
       <c r="AK65" s="164"/>
       <c r="AM65" s="217">
         <v>43528</v>
@@ -10365,11 +10404,11 @@
       <c r="C66" s="59"/>
       <c r="D66" s="59"/>
       <c r="E66" s="59"/>
-      <c r="G66" s="546"/>
-      <c r="H66" s="547"/>
+      <c r="G66" s="518"/>
+      <c r="H66" s="519"/>
       <c r="I66" s="448"/>
-      <c r="J66" s="545"/>
-      <c r="K66" s="545"/>
+      <c r="J66" s="517"/>
+      <c r="K66" s="517"/>
       <c r="L66" s="448"/>
       <c r="M66" s="448"/>
       <c r="N66" s="451"/>
@@ -10391,9 +10430,9 @@
       <c r="AE66" s="117"/>
       <c r="AF66" s="190"/>
       <c r="AG66" s="508"/>
-      <c r="AH66" s="563"/>
-      <c r="AI66" s="563"/>
-      <c r="AJ66" s="564"/>
+      <c r="AH66" s="535"/>
+      <c r="AI66" s="535"/>
+      <c r="AJ66" s="536"/>
       <c r="AK66" s="164"/>
       <c r="AM66" s="217">
         <v>43529</v>
@@ -10447,11 +10486,11 @@
       <c r="C67" s="59"/>
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
-      <c r="G67" s="543"/>
-      <c r="H67" s="544"/>
+      <c r="G67" s="515"/>
+      <c r="H67" s="516"/>
       <c r="I67" s="449"/>
-      <c r="J67" s="545"/>
-      <c r="K67" s="545"/>
+      <c r="J67" s="517"/>
+      <c r="K67" s="517"/>
       <c r="L67" s="449"/>
       <c r="M67" s="449"/>
       <c r="N67" s="450"/>
@@ -10473,9 +10512,9 @@
       <c r="AE67" s="117"/>
       <c r="AF67" s="190"/>
       <c r="AG67" s="508"/>
-      <c r="AH67" s="563"/>
-      <c r="AI67" s="563"/>
-      <c r="AJ67" s="564"/>
+      <c r="AH67" s="535"/>
+      <c r="AI67" s="535"/>
+      <c r="AJ67" s="536"/>
       <c r="AK67" s="164"/>
       <c r="AM67" s="217">
         <v>43530</v>
@@ -10529,8 +10568,8 @@
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
       <c r="E68" s="59"/>
-      <c r="G68" s="543"/>
-      <c r="H68" s="544"/>
+      <c r="G68" s="515"/>
+      <c r="H68" s="516"/>
       <c r="I68" s="449"/>
       <c r="J68" s="449"/>
       <c r="K68" s="449"/>
@@ -10555,9 +10594,9 @@
       <c r="AE68" s="117"/>
       <c r="AF68" s="190"/>
       <c r="AG68" s="508"/>
-      <c r="AH68" s="563"/>
-      <c r="AI68" s="563"/>
-      <c r="AJ68" s="564"/>
+      <c r="AH68" s="535"/>
+      <c r="AI68" s="535"/>
+      <c r="AJ68" s="536"/>
       <c r="AK68" s="164"/>
       <c r="AM68" s="217">
         <v>43531</v>
@@ -10611,8 +10650,8 @@
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
       <c r="E69" s="59"/>
-      <c r="G69" s="543"/>
-      <c r="H69" s="544"/>
+      <c r="G69" s="515"/>
+      <c r="H69" s="516"/>
       <c r="I69" s="449"/>
       <c r="J69" s="449"/>
       <c r="K69" s="449"/>
@@ -10637,9 +10676,9 @@
       <c r="AE69" s="117"/>
       <c r="AF69" s="190"/>
       <c r="AG69" s="508"/>
-      <c r="AH69" s="563"/>
-      <c r="AI69" s="563"/>
-      <c r="AJ69" s="564"/>
+      <c r="AH69" s="535"/>
+      <c r="AI69" s="535"/>
+      <c r="AJ69" s="536"/>
       <c r="AK69" s="164"/>
       <c r="AM69" s="217">
         <v>43532</v>
@@ -10693,11 +10732,11 @@
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
       <c r="E70" s="59"/>
-      <c r="G70" s="543"/>
-      <c r="H70" s="544"/>
+      <c r="G70" s="515"/>
+      <c r="H70" s="516"/>
       <c r="I70" s="449"/>
-      <c r="J70" s="545"/>
-      <c r="K70" s="545"/>
+      <c r="J70" s="517"/>
+      <c r="K70" s="517"/>
       <c r="L70" s="449"/>
       <c r="M70" s="449"/>
       <c r="N70" s="449"/>
@@ -10719,9 +10758,9 @@
       <c r="AE70" s="117"/>
       <c r="AF70" s="190"/>
       <c r="AG70" s="508"/>
-      <c r="AH70" s="563"/>
-      <c r="AI70" s="563"/>
-      <c r="AJ70" s="564"/>
+      <c r="AH70" s="535"/>
+      <c r="AI70" s="535"/>
+      <c r="AJ70" s="536"/>
       <c r="AK70" s="164"/>
       <c r="AM70" s="217">
         <v>43533</v>
@@ -10775,8 +10814,8 @@
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
-      <c r="G71" s="541"/>
-      <c r="H71" s="542"/>
+      <c r="G71" s="513"/>
+      <c r="H71" s="514"/>
       <c r="I71" s="451"/>
       <c r="J71" s="451"/>
       <c r="K71" s="451"/>
@@ -10801,9 +10840,9 @@
       <c r="AE71" s="117"/>
       <c r="AF71" s="190"/>
       <c r="AG71" s="157"/>
-      <c r="AH71" s="563"/>
-      <c r="AI71" s="563"/>
-      <c r="AJ71" s="564"/>
+      <c r="AH71" s="535"/>
+      <c r="AI71" s="535"/>
+      <c r="AJ71" s="536"/>
       <c r="AK71" s="164"/>
       <c r="AM71" s="217">
         <v>43534</v>
@@ -10857,11 +10896,11 @@
       <c r="C72" s="59"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
-      <c r="G72" s="543"/>
-      <c r="H72" s="544"/>
+      <c r="G72" s="515"/>
+      <c r="H72" s="516"/>
       <c r="I72" s="449"/>
-      <c r="J72" s="545"/>
-      <c r="K72" s="545"/>
+      <c r="J72" s="517"/>
+      <c r="K72" s="517"/>
       <c r="L72" s="450"/>
       <c r="M72" s="450"/>
       <c r="N72" s="448"/>
@@ -10883,9 +10922,9 @@
       <c r="AE72" s="117"/>
       <c r="AF72" s="190"/>
       <c r="AG72" s="157"/>
-      <c r="AH72" s="563"/>
-      <c r="AI72" s="563"/>
-      <c r="AJ72" s="564"/>
+      <c r="AH72" s="535"/>
+      <c r="AI72" s="535"/>
+      <c r="AJ72" s="536"/>
       <c r="AK72" s="164"/>
       <c r="AM72" s="217">
         <v>43535</v>
@@ -10939,11 +10978,11 @@
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
       <c r="E73" s="59"/>
-      <c r="G73" s="543"/>
-      <c r="H73" s="544"/>
+      <c r="G73" s="515"/>
+      <c r="H73" s="516"/>
       <c r="I73" s="449"/>
-      <c r="J73" s="545"/>
-      <c r="K73" s="545"/>
+      <c r="J73" s="517"/>
+      <c r="K73" s="517"/>
       <c r="L73" s="450"/>
       <c r="M73" s="450"/>
       <c r="N73" s="448"/>
@@ -10965,9 +11004,9 @@
       <c r="AE73" s="117"/>
       <c r="AF73" s="190"/>
       <c r="AG73" s="157"/>
-      <c r="AH73" s="563"/>
-      <c r="AI73" s="563"/>
-      <c r="AJ73" s="564"/>
+      <c r="AH73" s="535"/>
+      <c r="AI73" s="535"/>
+      <c r="AJ73" s="536"/>
       <c r="AK73" s="164"/>
       <c r="AM73" s="217">
         <v>43536</v>
@@ -11021,11 +11060,11 @@
       <c r="C74" s="59"/>
       <c r="D74" s="59"/>
       <c r="E74" s="59"/>
-      <c r="G74" s="543"/>
-      <c r="H74" s="544"/>
+      <c r="G74" s="515"/>
+      <c r="H74" s="516"/>
       <c r="I74" s="449"/>
-      <c r="J74" s="545"/>
-      <c r="K74" s="545"/>
+      <c r="J74" s="517"/>
+      <c r="K74" s="517"/>
       <c r="L74" s="450"/>
       <c r="M74" s="450"/>
       <c r="N74" s="448"/>
@@ -11047,9 +11086,9 @@
       <c r="AE74" s="117"/>
       <c r="AF74" s="190"/>
       <c r="AG74" s="157"/>
-      <c r="AH74" s="563"/>
-      <c r="AI74" s="563"/>
-      <c r="AJ74" s="564"/>
+      <c r="AH74" s="535"/>
+      <c r="AI74" s="535"/>
+      <c r="AJ74" s="536"/>
       <c r="AK74" s="164"/>
       <c r="AM74" s="217">
         <v>43537</v>
@@ -11103,8 +11142,8 @@
       <c r="C75" s="59"/>
       <c r="D75" s="59"/>
       <c r="E75" s="59"/>
-      <c r="G75" s="543"/>
-      <c r="H75" s="544"/>
+      <c r="G75" s="515"/>
+      <c r="H75" s="516"/>
       <c r="I75" s="449"/>
       <c r="J75" s="449"/>
       <c r="K75" s="449"/>
@@ -11129,9 +11168,9 @@
       <c r="AE75" s="117"/>
       <c r="AF75" s="190"/>
       <c r="AG75" s="157"/>
-      <c r="AH75" s="563"/>
-      <c r="AI75" s="563"/>
-      <c r="AJ75" s="564"/>
+      <c r="AH75" s="535"/>
+      <c r="AI75" s="535"/>
+      <c r="AJ75" s="536"/>
       <c r="AK75" s="164"/>
       <c r="AM75" s="217">
         <v>43538</v>
@@ -11185,11 +11224,11 @@
       <c r="C76" s="59"/>
       <c r="D76" s="59"/>
       <c r="E76" s="59"/>
-      <c r="G76" s="543"/>
-      <c r="H76" s="544"/>
+      <c r="G76" s="515"/>
+      <c r="H76" s="516"/>
       <c r="I76" s="449"/>
-      <c r="J76" s="545"/>
-      <c r="K76" s="545"/>
+      <c r="J76" s="517"/>
+      <c r="K76" s="517"/>
       <c r="L76" s="450"/>
       <c r="M76" s="450"/>
       <c r="N76" s="449"/>
@@ -11211,9 +11250,9 @@
       <c r="AE76" s="117"/>
       <c r="AF76" s="190"/>
       <c r="AG76" s="157"/>
-      <c r="AH76" s="563"/>
-      <c r="AI76" s="563"/>
-      <c r="AJ76" s="564"/>
+      <c r="AH76" s="535"/>
+      <c r="AI76" s="535"/>
+      <c r="AJ76" s="536"/>
       <c r="AK76" s="164"/>
       <c r="AM76" s="217">
         <v>43539</v>
@@ -11267,11 +11306,11 @@
       <c r="C77" s="59"/>
       <c r="D77" s="59"/>
       <c r="E77" s="59"/>
-      <c r="G77" s="551"/>
-      <c r="H77" s="552"/>
-      <c r="I77" s="553"/>
-      <c r="J77" s="553"/>
-      <c r="K77" s="553"/>
+      <c r="G77" s="523"/>
+      <c r="H77" s="524"/>
+      <c r="I77" s="525"/>
+      <c r="J77" s="525"/>
+      <c r="K77" s="525"/>
       <c r="L77" s="451"/>
       <c r="M77" s="451"/>
       <c r="N77" s="449"/>
@@ -11293,9 +11332,9 @@
       <c r="AE77" s="117"/>
       <c r="AF77" s="190"/>
       <c r="AG77" s="157"/>
-      <c r="AH77" s="563"/>
-      <c r="AI77" s="563"/>
-      <c r="AJ77" s="564"/>
+      <c r="AH77" s="535"/>
+      <c r="AI77" s="535"/>
+      <c r="AJ77" s="536"/>
       <c r="AK77" s="164"/>
       <c r="AM77" s="217">
         <v>43540</v>
@@ -11349,11 +11388,11 @@
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
       <c r="E78" s="59"/>
-      <c r="G78" s="543"/>
-      <c r="H78" s="544"/>
+      <c r="G78" s="515"/>
+      <c r="H78" s="516"/>
       <c r="I78" s="449"/>
-      <c r="J78" s="545"/>
-      <c r="K78" s="545"/>
+      <c r="J78" s="517"/>
+      <c r="K78" s="517"/>
       <c r="L78" s="450"/>
       <c r="M78" s="450"/>
       <c r="N78" s="449"/>
@@ -11375,9 +11414,9 @@
       <c r="AE78" s="117"/>
       <c r="AF78" s="190"/>
       <c r="AG78" s="157"/>
-      <c r="AH78" s="563"/>
-      <c r="AI78" s="563"/>
-      <c r="AJ78" s="564"/>
+      <c r="AH78" s="535"/>
+      <c r="AI78" s="535"/>
+      <c r="AJ78" s="536"/>
       <c r="AK78" s="164"/>
       <c r="AM78" s="217">
         <v>43541</v>
@@ -11431,11 +11470,11 @@
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
       <c r="E79" s="59"/>
-      <c r="G79" s="543"/>
-      <c r="H79" s="544"/>
+      <c r="G79" s="515"/>
+      <c r="H79" s="516"/>
       <c r="I79" s="449"/>
-      <c r="J79" s="545"/>
-      <c r="K79" s="545"/>
+      <c r="J79" s="517"/>
+      <c r="K79" s="517"/>
       <c r="L79" s="450"/>
       <c r="M79" s="450"/>
       <c r="N79" s="451"/>
@@ -11457,9 +11496,9 @@
       <c r="AE79" s="117"/>
       <c r="AF79" s="190"/>
       <c r="AG79" s="157"/>
-      <c r="AH79" s="563"/>
-      <c r="AI79" s="563"/>
-      <c r="AJ79" s="564"/>
+      <c r="AH79" s="535"/>
+      <c r="AI79" s="535"/>
+      <c r="AJ79" s="536"/>
       <c r="AK79" s="164"/>
       <c r="AM79" s="217">
         <v>43542</v>
@@ -11513,8 +11552,8 @@
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
       <c r="E80" s="59"/>
-      <c r="G80" s="543"/>
-      <c r="H80" s="544"/>
+      <c r="G80" s="515"/>
+      <c r="H80" s="516"/>
       <c r="I80" s="449"/>
       <c r="J80" s="449"/>
       <c r="K80" s="449"/>
@@ -11539,9 +11578,9 @@
       <c r="AE80" s="117"/>
       <c r="AF80" s="190"/>
       <c r="AG80" s="157"/>
-      <c r="AH80" s="563"/>
-      <c r="AI80" s="563"/>
-      <c r="AJ80" s="564"/>
+      <c r="AH80" s="535"/>
+      <c r="AI80" s="535"/>
+      <c r="AJ80" s="536"/>
       <c r="AK80" s="164"/>
       <c r="AM80" s="217">
         <v>43543</v>
@@ -11595,11 +11634,11 @@
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
       <c r="E81" s="59"/>
-      <c r="G81" s="543"/>
-      <c r="H81" s="544"/>
+      <c r="G81" s="515"/>
+      <c r="H81" s="516"/>
       <c r="I81" s="449"/>
-      <c r="J81" s="545"/>
-      <c r="K81" s="545"/>
+      <c r="J81" s="517"/>
+      <c r="K81" s="517"/>
       <c r="L81" s="449"/>
       <c r="M81" s="449"/>
       <c r="N81" s="450"/>
@@ -11621,9 +11660,9 @@
       <c r="AE81" s="117"/>
       <c r="AF81" s="190"/>
       <c r="AG81" s="157"/>
-      <c r="AH81" s="563"/>
-      <c r="AI81" s="563"/>
-      <c r="AJ81" s="564"/>
+      <c r="AH81" s="535"/>
+      <c r="AI81" s="535"/>
+      <c r="AJ81" s="536"/>
       <c r="AK81" s="164"/>
       <c r="AM81" s="217">
         <v>43544</v>
@@ -11677,11 +11716,11 @@
       <c r="C82" s="59"/>
       <c r="D82" s="59"/>
       <c r="E82" s="59"/>
-      <c r="G82" s="543"/>
-      <c r="H82" s="544"/>
+      <c r="G82" s="515"/>
+      <c r="H82" s="516"/>
       <c r="I82" s="449"/>
-      <c r="J82" s="545"/>
-      <c r="K82" s="545"/>
+      <c r="J82" s="517"/>
+      <c r="K82" s="517"/>
       <c r="L82" s="449"/>
       <c r="M82" s="449"/>
       <c r="N82" s="450"/>
@@ -11703,9 +11742,9 @@
       <c r="AE82" s="117"/>
       <c r="AF82" s="190"/>
       <c r="AG82" s="157"/>
-      <c r="AH82" s="563"/>
-      <c r="AI82" s="563"/>
-      <c r="AJ82" s="564"/>
+      <c r="AH82" s="535"/>
+      <c r="AI82" s="535"/>
+      <c r="AJ82" s="536"/>
       <c r="AK82" s="164"/>
       <c r="AM82" s="217">
         <v>43545</v>
@@ -11759,11 +11798,11 @@
       <c r="C83" s="59"/>
       <c r="D83" s="59"/>
       <c r="E83" s="59"/>
-      <c r="G83" s="543"/>
-      <c r="H83" s="544"/>
+      <c r="G83" s="515"/>
+      <c r="H83" s="516"/>
       <c r="I83" s="449"/>
-      <c r="J83" s="545"/>
-      <c r="K83" s="545"/>
+      <c r="J83" s="517"/>
+      <c r="K83" s="517"/>
       <c r="L83" s="449"/>
       <c r="M83" s="449"/>
       <c r="N83" s="449"/>
@@ -11785,9 +11824,9 @@
       <c r="AE83" s="117"/>
       <c r="AF83" s="190"/>
       <c r="AG83" s="157"/>
-      <c r="AH83" s="563"/>
-      <c r="AI83" s="563"/>
-      <c r="AJ83" s="564"/>
+      <c r="AH83" s="535"/>
+      <c r="AI83" s="535"/>
+      <c r="AJ83" s="536"/>
       <c r="AK83" s="164"/>
       <c r="AM83" s="217">
         <v>43546</v>
@@ -11841,11 +11880,11 @@
       <c r="C84" s="59"/>
       <c r="D84" s="59"/>
       <c r="E84" s="59"/>
-      <c r="G84" s="543"/>
-      <c r="H84" s="544"/>
+      <c r="G84" s="515"/>
+      <c r="H84" s="516"/>
       <c r="I84" s="449"/>
-      <c r="J84" s="545"/>
-      <c r="K84" s="545"/>
+      <c r="J84" s="517"/>
+      <c r="K84" s="517"/>
       <c r="L84" s="449"/>
       <c r="M84" s="449"/>
       <c r="N84" s="450"/>
@@ -11867,9 +11906,9 @@
       <c r="AE84" s="117"/>
       <c r="AF84" s="190"/>
       <c r="AG84" s="157"/>
-      <c r="AH84" s="563"/>
-      <c r="AI84" s="563"/>
-      <c r="AJ84" s="564"/>
+      <c r="AH84" s="535"/>
+      <c r="AI84" s="535"/>
+      <c r="AJ84" s="536"/>
       <c r="AK84" s="164"/>
       <c r="AM84" s="217">
         <v>43547</v>
@@ -11923,8 +11962,8 @@
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
       <c r="E85" s="59"/>
-      <c r="G85" s="543"/>
-      <c r="H85" s="544"/>
+      <c r="G85" s="515"/>
+      <c r="H85" s="516"/>
       <c r="I85" s="449"/>
       <c r="J85" s="449"/>
       <c r="K85" s="449"/>
@@ -11949,9 +11988,9 @@
       <c r="AE85" s="117"/>
       <c r="AF85" s="190"/>
       <c r="AG85" s="157"/>
-      <c r="AH85" s="563"/>
-      <c r="AI85" s="563"/>
-      <c r="AJ85" s="564"/>
+      <c r="AH85" s="535"/>
+      <c r="AI85" s="535"/>
+      <c r="AJ85" s="536"/>
       <c r="AK85" s="164"/>
       <c r="AM85" s="217">
         <v>43548</v>
@@ -12005,11 +12044,11 @@
       <c r="C86" s="59"/>
       <c r="D86" s="59"/>
       <c r="E86" s="59"/>
-      <c r="G86" s="543"/>
-      <c r="H86" s="544"/>
+      <c r="G86" s="515"/>
+      <c r="H86" s="516"/>
       <c r="I86" s="449"/>
-      <c r="J86" s="545"/>
-      <c r="K86" s="545"/>
+      <c r="J86" s="517"/>
+      <c r="K86" s="517"/>
       <c r="L86" s="449"/>
       <c r="M86" s="449"/>
       <c r="N86" s="450"/>
@@ -12031,9 +12070,9 @@
       <c r="AE86" s="117"/>
       <c r="AF86" s="190"/>
       <c r="AG86" s="157"/>
-      <c r="AH86" s="563"/>
-      <c r="AI86" s="563"/>
-      <c r="AJ86" s="564"/>
+      <c r="AH86" s="535"/>
+      <c r="AI86" s="535"/>
+      <c r="AJ86" s="536"/>
       <c r="AK86" s="164"/>
       <c r="AM86" s="217">
         <v>43549</v>
@@ -12091,11 +12130,11 @@
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
       <c r="E87" s="59"/>
-      <c r="G87" s="543"/>
-      <c r="H87" s="544"/>
+      <c r="G87" s="515"/>
+      <c r="H87" s="516"/>
       <c r="I87" s="449"/>
-      <c r="J87" s="545"/>
-      <c r="K87" s="545"/>
+      <c r="J87" s="517"/>
+      <c r="K87" s="517"/>
       <c r="L87" s="449"/>
       <c r="M87" s="449"/>
       <c r="N87" s="450"/>
@@ -12117,9 +12156,9 @@
       <c r="AE87" s="117"/>
       <c r="AF87" s="190"/>
       <c r="AG87" s="157"/>
-      <c r="AH87" s="563"/>
-      <c r="AI87" s="563"/>
-      <c r="AJ87" s="564"/>
+      <c r="AH87" s="535"/>
+      <c r="AI87" s="535"/>
+      <c r="AJ87" s="536"/>
       <c r="AK87" s="164"/>
       <c r="AM87" s="217">
         <v>43550</v>
@@ -12178,8 +12217,8 @@
       <c r="C88" s="59"/>
       <c r="D88" s="59"/>
       <c r="E88" s="59"/>
-      <c r="G88" s="541"/>
-      <c r="H88" s="542"/>
+      <c r="G88" s="513"/>
+      <c r="H88" s="514"/>
       <c r="I88" s="451"/>
       <c r="J88" s="451"/>
       <c r="K88" s="451"/>
@@ -12204,9 +12243,9 @@
       <c r="AE88" s="117"/>
       <c r="AF88" s="190"/>
       <c r="AG88" s="157"/>
-      <c r="AH88" s="563"/>
-      <c r="AI88" s="563"/>
-      <c r="AJ88" s="564"/>
+      <c r="AH88" s="535"/>
+      <c r="AI88" s="535"/>
+      <c r="AJ88" s="536"/>
       <c r="AK88" s="164"/>
       <c r="AM88" s="217">
         <v>43551</v>
@@ -12265,11 +12304,11 @@
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
       <c r="E89" s="59"/>
-      <c r="G89" s="543"/>
-      <c r="H89" s="554"/>
+      <c r="G89" s="515"/>
+      <c r="H89" s="526"/>
       <c r="I89" s="449"/>
-      <c r="J89" s="545"/>
-      <c r="K89" s="545"/>
+      <c r="J89" s="517"/>
+      <c r="K89" s="517"/>
       <c r="L89" s="449"/>
       <c r="M89" s="449"/>
       <c r="N89" s="449"/>
@@ -12291,9 +12330,9 @@
       <c r="AE89" s="117"/>
       <c r="AF89" s="190"/>
       <c r="AG89" s="157"/>
-      <c r="AH89" s="563"/>
-      <c r="AI89" s="563"/>
-      <c r="AJ89" s="564"/>
+      <c r="AH89" s="535"/>
+      <c r="AI89" s="535"/>
+      <c r="AJ89" s="536"/>
       <c r="AK89" s="164"/>
       <c r="AM89" s="217">
         <v>43552</v>
@@ -12352,11 +12391,11 @@
       <c r="C90" s="59"/>
       <c r="D90" s="59"/>
       <c r="E90" s="59"/>
-      <c r="G90" s="543"/>
-      <c r="H90" s="554"/>
+      <c r="G90" s="515"/>
+      <c r="H90" s="526"/>
       <c r="I90" s="449"/>
-      <c r="J90" s="545"/>
-      <c r="K90" s="545"/>
+      <c r="J90" s="517"/>
+      <c r="K90" s="517"/>
       <c r="L90" s="449"/>
       <c r="M90" s="449"/>
       <c r="N90" s="449"/>
@@ -12378,9 +12417,9 @@
       <c r="AE90" s="117"/>
       <c r="AF90" s="190"/>
       <c r="AG90" s="157"/>
-      <c r="AH90" s="563"/>
-      <c r="AI90" s="563"/>
-      <c r="AJ90" s="564"/>
+      <c r="AH90" s="535"/>
+      <c r="AI90" s="535"/>
+      <c r="AJ90" s="536"/>
       <c r="AK90" s="164"/>
       <c r="AM90" s="217">
         <v>43553</v>
@@ -12439,11 +12478,11 @@
       <c r="C91" s="59"/>
       <c r="D91" s="59"/>
       <c r="E91" s="59"/>
-      <c r="G91" s="543"/>
-      <c r="H91" s="544"/>
+      <c r="G91" s="515"/>
+      <c r="H91" s="516"/>
       <c r="I91" s="449"/>
-      <c r="J91" s="545"/>
-      <c r="K91" s="545"/>
+      <c r="J91" s="517"/>
+      <c r="K91" s="517"/>
       <c r="L91" s="449"/>
       <c r="M91" s="449"/>
       <c r="N91" s="449"/>
@@ -12465,9 +12504,9 @@
       <c r="AE91" s="117"/>
       <c r="AF91" s="190"/>
       <c r="AG91" s="157"/>
-      <c r="AH91" s="563"/>
-      <c r="AI91" s="563"/>
-      <c r="AJ91" s="564"/>
+      <c r="AH91" s="535"/>
+      <c r="AI91" s="535"/>
+      <c r="AJ91" s="536"/>
       <c r="AK91" s="164"/>
       <c r="AM91" s="217">
         <v>43554</v>
@@ -12526,11 +12565,11 @@
       <c r="C92" s="59"/>
       <c r="D92" s="59"/>
       <c r="E92" s="59"/>
-      <c r="G92" s="543"/>
-      <c r="H92" s="544"/>
+      <c r="G92" s="515"/>
+      <c r="H92" s="516"/>
       <c r="I92" s="449"/>
-      <c r="J92" s="545"/>
-      <c r="K92" s="545"/>
+      <c r="J92" s="517"/>
+      <c r="K92" s="517"/>
       <c r="L92" s="449"/>
       <c r="M92" s="449"/>
       <c r="N92" s="449"/>
@@ -12552,9 +12591,9 @@
       <c r="AE92" s="117"/>
       <c r="AF92" s="190"/>
       <c r="AG92" s="157"/>
-      <c r="AH92" s="563"/>
-      <c r="AI92" s="563"/>
-      <c r="AJ92" s="564"/>
+      <c r="AH92" s="535"/>
+      <c r="AI92" s="535"/>
+      <c r="AJ92" s="536"/>
       <c r="AK92" s="164"/>
       <c r="AM92" s="217">
         <v>43555</v>
@@ -12613,11 +12652,11 @@
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
       <c r="E93" s="59"/>
-      <c r="G93" s="543"/>
-      <c r="H93" s="544"/>
+      <c r="G93" s="515"/>
+      <c r="H93" s="516"/>
       <c r="I93" s="449"/>
-      <c r="J93" s="545"/>
-      <c r="K93" s="545"/>
+      <c r="J93" s="517"/>
+      <c r="K93" s="517"/>
       <c r="L93" s="449"/>
       <c r="M93" s="449"/>
       <c r="N93" s="449"/>
@@ -12639,9 +12678,9 @@
       <c r="AE93" s="117"/>
       <c r="AF93" s="190"/>
       <c r="AG93" s="157"/>
-      <c r="AH93" s="563"/>
-      <c r="AI93" s="563"/>
-      <c r="AJ93" s="564"/>
+      <c r="AH93" s="535"/>
+      <c r="AI93" s="535"/>
+      <c r="AJ93" s="536"/>
       <c r="AK93" s="164"/>
       <c r="AM93" s="217">
         <v>43556</v>
@@ -12700,11 +12739,11 @@
       <c r="C94" s="59"/>
       <c r="D94" s="59"/>
       <c r="E94" s="59"/>
-      <c r="G94" s="543"/>
-      <c r="H94" s="544"/>
+      <c r="G94" s="515"/>
+      <c r="H94" s="516"/>
       <c r="I94" s="449"/>
-      <c r="J94" s="545"/>
-      <c r="K94" s="545"/>
+      <c r="J94" s="517"/>
+      <c r="K94" s="517"/>
       <c r="L94" s="449"/>
       <c r="M94" s="449"/>
       <c r="N94" s="449"/>
@@ -12726,9 +12765,9 @@
       <c r="AE94" s="117"/>
       <c r="AF94" s="190"/>
       <c r="AG94" s="157"/>
-      <c r="AH94" s="563"/>
-      <c r="AI94" s="563"/>
-      <c r="AJ94" s="564"/>
+      <c r="AH94" s="535"/>
+      <c r="AI94" s="535"/>
+      <c r="AJ94" s="536"/>
       <c r="AK94" s="164"/>
       <c r="AM94" s="217">
         <v>43557</v>
@@ -12787,8 +12826,8 @@
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
       <c r="E95" s="59"/>
-      <c r="G95" s="543"/>
-      <c r="H95" s="544"/>
+      <c r="G95" s="515"/>
+      <c r="H95" s="516"/>
       <c r="I95" s="449"/>
       <c r="J95" s="449"/>
       <c r="K95" s="449"/>
@@ -12813,9 +12852,9 @@
       <c r="AE95" s="117"/>
       <c r="AF95" s="190"/>
       <c r="AG95" s="157"/>
-      <c r="AH95" s="563"/>
-      <c r="AI95" s="563"/>
-      <c r="AJ95" s="564"/>
+      <c r="AH95" s="535"/>
+      <c r="AI95" s="535"/>
+      <c r="AJ95" s="536"/>
       <c r="AK95" s="164"/>
       <c r="AM95" s="217">
         <v>43558</v>
@@ -12874,8 +12913,8 @@
       <c r="C96" s="59"/>
       <c r="D96" s="59"/>
       <c r="E96" s="59"/>
-      <c r="G96" s="541"/>
-      <c r="H96" s="542"/>
+      <c r="G96" s="513"/>
+      <c r="H96" s="514"/>
       <c r="I96" s="451"/>
       <c r="J96" s="451"/>
       <c r="K96" s="451"/>
@@ -12900,9 +12939,9 @@
       <c r="AE96" s="117"/>
       <c r="AF96" s="190"/>
       <c r="AG96" s="157"/>
-      <c r="AH96" s="563"/>
-      <c r="AI96" s="563"/>
-      <c r="AJ96" s="564"/>
+      <c r="AH96" s="535"/>
+      <c r="AI96" s="535"/>
+      <c r="AJ96" s="536"/>
       <c r="AK96" s="164"/>
       <c r="AM96" s="217">
         <v>43559</v>
@@ -12961,12 +13000,12 @@
       <c r="C97" s="59"/>
       <c r="D97" s="59"/>
       <c r="E97" s="59"/>
-      <c r="G97" s="555"/>
-      <c r="H97" s="556"/>
+      <c r="G97" s="527"/>
+      <c r="H97" s="528"/>
       <c r="I97" s="449"/>
-      <c r="J97" s="545"/>
-      <c r="K97" s="545"/>
-      <c r="L97" s="557"/>
+      <c r="J97" s="517"/>
+      <c r="K97" s="517"/>
+      <c r="L97" s="529"/>
       <c r="M97" s="69"/>
       <c r="N97" s="449"/>
       <c r="O97" s="449"/>
@@ -12987,9 +13026,9 @@
       <c r="AE97" s="117"/>
       <c r="AF97" s="190"/>
       <c r="AG97" s="157"/>
-      <c r="AH97" s="563"/>
-      <c r="AI97" s="563"/>
-      <c r="AJ97" s="564"/>
+      <c r="AH97" s="535"/>
+      <c r="AI97" s="535"/>
+      <c r="AJ97" s="536"/>
       <c r="AK97" s="164"/>
       <c r="AM97" s="217">
         <v>43560</v>
@@ -13048,12 +13087,12 @@
       <c r="C98" s="59"/>
       <c r="D98" s="59"/>
       <c r="E98" s="59"/>
-      <c r="G98" s="555"/>
-      <c r="H98" s="558"/>
-      <c r="I98" s="559"/>
-      <c r="J98" s="545"/>
-      <c r="K98" s="545"/>
-      <c r="L98" s="557"/>
+      <c r="G98" s="527"/>
+      <c r="H98" s="530"/>
+      <c r="I98" s="531"/>
+      <c r="J98" s="517"/>
+      <c r="K98" s="517"/>
+      <c r="L98" s="529"/>
       <c r="M98" s="69"/>
       <c r="N98" s="449"/>
       <c r="O98" s="449"/>
@@ -13074,9 +13113,9 @@
       <c r="AE98" s="117"/>
       <c r="AF98" s="190"/>
       <c r="AG98" s="157"/>
-      <c r="AH98" s="563"/>
-      <c r="AI98" s="563"/>
-      <c r="AJ98" s="564"/>
+      <c r="AH98" s="535"/>
+      <c r="AI98" s="535"/>
+      <c r="AJ98" s="536"/>
       <c r="AK98" s="164"/>
       <c r="AM98" s="217">
         <v>43561</v>
@@ -13136,11 +13175,11 @@
       <c r="D99" s="59"/>
       <c r="E99" s="59"/>
       <c r="G99" s="72"/>
-      <c r="H99" s="558"/>
-      <c r="I99" s="559"/>
-      <c r="J99" s="545"/>
-      <c r="K99" s="545"/>
-      <c r="L99" s="557"/>
+      <c r="H99" s="530"/>
+      <c r="I99" s="531"/>
+      <c r="J99" s="517"/>
+      <c r="K99" s="517"/>
+      <c r="L99" s="529"/>
       <c r="M99" s="69"/>
       <c r="N99" s="449"/>
       <c r="O99" s="449"/>
@@ -13161,9 +13200,9 @@
       <c r="AE99" s="117"/>
       <c r="AF99" s="190"/>
       <c r="AG99" s="157"/>
-      <c r="AH99" s="563"/>
-      <c r="AI99" s="563"/>
-      <c r="AJ99" s="564"/>
+      <c r="AH99" s="535"/>
+      <c r="AI99" s="535"/>
+      <c r="AJ99" s="536"/>
       <c r="AK99" s="164"/>
       <c r="AM99" s="217">
         <v>43562</v>
@@ -13223,11 +13262,11 @@
       <c r="D100" s="59"/>
       <c r="E100" s="59"/>
       <c r="G100" s="72"/>
-      <c r="H100" s="558"/>
-      <c r="I100" s="559"/>
-      <c r="J100" s="545"/>
-      <c r="K100" s="545"/>
-      <c r="L100" s="557"/>
+      <c r="H100" s="530"/>
+      <c r="I100" s="531"/>
+      <c r="J100" s="517"/>
+      <c r="K100" s="517"/>
+      <c r="L100" s="529"/>
       <c r="M100" s="69"/>
       <c r="N100" s="449"/>
       <c r="O100" s="449"/>
@@ -13248,9 +13287,9 @@
       <c r="AE100" s="117"/>
       <c r="AF100" s="190"/>
       <c r="AG100" s="157"/>
-      <c r="AH100" s="563"/>
-      <c r="AI100" s="563"/>
-      <c r="AJ100" s="564"/>
+      <c r="AH100" s="535"/>
+      <c r="AI100" s="535"/>
+      <c r="AJ100" s="536"/>
       <c r="AK100" s="164"/>
       <c r="AM100" s="217">
         <v>43563</v>
@@ -13310,11 +13349,11 @@
       <c r="D101" s="59"/>
       <c r="E101" s="59"/>
       <c r="G101" s="72"/>
-      <c r="H101" s="558"/>
-      <c r="I101" s="559"/>
-      <c r="J101" s="545"/>
-      <c r="K101" s="545"/>
-      <c r="L101" s="557"/>
+      <c r="H101" s="530"/>
+      <c r="I101" s="531"/>
+      <c r="J101" s="517"/>
+      <c r="K101" s="517"/>
+      <c r="L101" s="529"/>
       <c r="M101" s="69"/>
       <c r="N101" s="449"/>
       <c r="O101" s="449"/>
@@ -13335,9 +13374,9 @@
       <c r="AE101" s="117"/>
       <c r="AF101" s="190"/>
       <c r="AG101" s="157"/>
-      <c r="AH101" s="563"/>
-      <c r="AI101" s="563"/>
-      <c r="AJ101" s="564"/>
+      <c r="AH101" s="535"/>
+      <c r="AI101" s="535"/>
+      <c r="AJ101" s="536"/>
       <c r="AK101" s="164"/>
       <c r="AM101" s="217">
         <v>43564</v>
@@ -13397,11 +13436,11 @@
       <c r="D102" s="59"/>
       <c r="E102" s="59"/>
       <c r="G102" s="72"/>
-      <c r="H102" s="558"/>
-      <c r="I102" s="559"/>
-      <c r="J102" s="545"/>
-      <c r="K102" s="545"/>
-      <c r="L102" s="557"/>
+      <c r="H102" s="530"/>
+      <c r="I102" s="531"/>
+      <c r="J102" s="517"/>
+      <c r="K102" s="517"/>
+      <c r="L102" s="529"/>
       <c r="M102" s="69"/>
       <c r="N102" s="449"/>
       <c r="O102" s="449"/>
@@ -13422,9 +13461,9 @@
       <c r="AE102" s="117"/>
       <c r="AF102" s="190"/>
       <c r="AG102" s="157"/>
-      <c r="AH102" s="563"/>
-      <c r="AI102" s="563"/>
-      <c r="AJ102" s="564"/>
+      <c r="AH102" s="535"/>
+      <c r="AI102" s="535"/>
+      <c r="AJ102" s="536"/>
       <c r="AK102" s="164"/>
       <c r="AM102" s="217">
         <v>43565</v>
@@ -13484,11 +13523,11 @@
       <c r="D103" s="59"/>
       <c r="E103" s="59"/>
       <c r="G103" s="72"/>
-      <c r="H103" s="558"/>
-      <c r="I103" s="559"/>
-      <c r="J103" s="545"/>
-      <c r="K103" s="545"/>
-      <c r="L103" s="557"/>
+      <c r="H103" s="530"/>
+      <c r="I103" s="531"/>
+      <c r="J103" s="517"/>
+      <c r="K103" s="517"/>
+      <c r="L103" s="529"/>
       <c r="M103" s="69"/>
       <c r="N103" s="449"/>
       <c r="O103" s="449"/>
@@ -13509,9 +13548,9 @@
       <c r="AE103" s="117"/>
       <c r="AF103" s="190"/>
       <c r="AG103" s="157"/>
-      <c r="AH103" s="563"/>
-      <c r="AI103" s="563"/>
-      <c r="AJ103" s="564"/>
+      <c r="AH103" s="535"/>
+      <c r="AI103" s="535"/>
+      <c r="AJ103" s="536"/>
       <c r="AK103" s="164"/>
       <c r="AM103" s="217">
         <v>43566</v>
@@ -13571,11 +13610,11 @@
       <c r="D104" s="59"/>
       <c r="E104" s="59"/>
       <c r="G104" s="72"/>
-      <c r="H104" s="558"/>
-      <c r="I104" s="559"/>
-      <c r="J104" s="545"/>
-      <c r="K104" s="545"/>
-      <c r="L104" s="557"/>
+      <c r="H104" s="530"/>
+      <c r="I104" s="531"/>
+      <c r="J104" s="517"/>
+      <c r="K104" s="517"/>
+      <c r="L104" s="529"/>
       <c r="M104" s="69"/>
       <c r="N104" s="451"/>
       <c r="O104" s="451"/>
@@ -13596,9 +13635,9 @@
       <c r="AE104" s="117"/>
       <c r="AF104" s="190"/>
       <c r="AG104" s="157"/>
-      <c r="AH104" s="563"/>
-      <c r="AI104" s="563"/>
-      <c r="AJ104" s="564"/>
+      <c r="AH104" s="535"/>
+      <c r="AI104" s="535"/>
+      <c r="AJ104" s="536"/>
       <c r="AK104" s="164"/>
       <c r="AM104" s="217">
         <v>43567</v>
@@ -13658,11 +13697,11 @@
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="G105" s="72"/>
-      <c r="H105" s="558"/>
-      <c r="I105" s="559"/>
-      <c r="J105" s="545"/>
-      <c r="K105" s="545"/>
-      <c r="L105" s="557"/>
+      <c r="H105" s="530"/>
+      <c r="I105" s="531"/>
+      <c r="J105" s="517"/>
+      <c r="K105" s="517"/>
+      <c r="L105" s="529"/>
       <c r="M105" s="69"/>
       <c r="N105" s="69"/>
       <c r="O105" s="69"/>
@@ -13683,9 +13722,9 @@
       <c r="AE105" s="117"/>
       <c r="AF105" s="190"/>
       <c r="AG105" s="157"/>
-      <c r="AH105" s="563"/>
-      <c r="AI105" s="563"/>
-      <c r="AJ105" s="564"/>
+      <c r="AH105" s="535"/>
+      <c r="AI105" s="535"/>
+      <c r="AJ105" s="536"/>
       <c r="AK105" s="164"/>
       <c r="AM105" s="217">
         <v>43568</v>
@@ -13745,11 +13784,11 @@
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="G106" s="72"/>
-      <c r="H106" s="558"/>
-      <c r="I106" s="559"/>
-      <c r="J106" s="545"/>
-      <c r="K106" s="545"/>
-      <c r="L106" s="557"/>
+      <c r="H106" s="530"/>
+      <c r="I106" s="531"/>
+      <c r="J106" s="517"/>
+      <c r="K106" s="517"/>
+      <c r="L106" s="529"/>
       <c r="M106" s="69"/>
       <c r="N106" s="69"/>
       <c r="O106" s="69"/>
@@ -13770,9 +13809,9 @@
       <c r="AE106" s="117"/>
       <c r="AF106" s="190"/>
       <c r="AG106" s="157"/>
-      <c r="AH106" s="563"/>
-      <c r="AI106" s="563"/>
-      <c r="AJ106" s="564"/>
+      <c r="AH106" s="535"/>
+      <c r="AI106" s="535"/>
+      <c r="AJ106" s="536"/>
       <c r="AK106" s="164"/>
       <c r="AM106" s="217">
         <v>43569</v>
@@ -13832,11 +13871,11 @@
       <c r="D107" s="59"/>
       <c r="E107" s="59"/>
       <c r="G107" s="72"/>
-      <c r="H107" s="558"/>
-      <c r="I107" s="559"/>
-      <c r="J107" s="545"/>
-      <c r="K107" s="545"/>
-      <c r="L107" s="557"/>
+      <c r="H107" s="530"/>
+      <c r="I107" s="531"/>
+      <c r="J107" s="517"/>
+      <c r="K107" s="517"/>
+      <c r="L107" s="529"/>
       <c r="M107" s="69"/>
       <c r="N107" s="69"/>
       <c r="O107" s="69"/>
@@ -13857,9 +13896,9 @@
       <c r="AE107" s="117"/>
       <c r="AF107" s="190"/>
       <c r="AG107" s="157"/>
-      <c r="AH107" s="563"/>
-      <c r="AI107" s="563"/>
-      <c r="AJ107" s="564"/>
+      <c r="AH107" s="535"/>
+      <c r="AI107" s="535"/>
+      <c r="AJ107" s="536"/>
       <c r="AK107" s="164"/>
       <c r="AM107" s="217">
         <v>43570</v>
@@ -13919,11 +13958,11 @@
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="G108" s="72"/>
-      <c r="H108" s="558"/>
-      <c r="I108" s="559"/>
-      <c r="J108" s="545"/>
-      <c r="K108" s="545"/>
-      <c r="L108" s="557"/>
+      <c r="H108" s="530"/>
+      <c r="I108" s="531"/>
+      <c r="J108" s="517"/>
+      <c r="K108" s="517"/>
+      <c r="L108" s="529"/>
       <c r="M108" s="69"/>
       <c r="N108" s="69"/>
       <c r="O108" s="69"/>
@@ -13944,9 +13983,9 @@
       <c r="AE108" s="117"/>
       <c r="AF108" s="190"/>
       <c r="AG108" s="157"/>
-      <c r="AH108" s="563"/>
-      <c r="AI108" s="563"/>
-      <c r="AJ108" s="564"/>
+      <c r="AH108" s="535"/>
+      <c r="AI108" s="535"/>
+      <c r="AJ108" s="536"/>
       <c r="AK108" s="164"/>
       <c r="AM108" s="217">
         <v>43571</v>
@@ -14006,11 +14045,11 @@
       <c r="D109" s="59"/>
       <c r="E109" s="59"/>
       <c r="G109" s="72"/>
-      <c r="H109" s="558"/>
-      <c r="I109" s="559"/>
-      <c r="J109" s="545"/>
-      <c r="K109" s="545"/>
-      <c r="L109" s="557"/>
+      <c r="H109" s="530"/>
+      <c r="I109" s="531"/>
+      <c r="J109" s="517"/>
+      <c r="K109" s="517"/>
+      <c r="L109" s="529"/>
       <c r="M109" s="69"/>
       <c r="N109" s="69"/>
       <c r="O109" s="69"/>
@@ -14031,9 +14070,9 @@
       <c r="AE109" s="117"/>
       <c r="AF109" s="190"/>
       <c r="AG109" s="157"/>
-      <c r="AH109" s="563"/>
-      <c r="AI109" s="563"/>
-      <c r="AJ109" s="564"/>
+      <c r="AH109" s="535"/>
+      <c r="AI109" s="535"/>
+      <c r="AJ109" s="536"/>
       <c r="AK109" s="164"/>
       <c r="AM109" s="217">
         <v>43572</v>
@@ -14093,11 +14132,11 @@
       <c r="D110" s="59"/>
       <c r="E110" s="59"/>
       <c r="G110" s="72"/>
-      <c r="H110" s="558"/>
-      <c r="I110" s="559"/>
-      <c r="J110" s="545"/>
-      <c r="K110" s="545"/>
-      <c r="L110" s="557"/>
+      <c r="H110" s="530"/>
+      <c r="I110" s="531"/>
+      <c r="J110" s="517"/>
+      <c r="K110" s="517"/>
+      <c r="L110" s="529"/>
       <c r="M110" s="69"/>
       <c r="N110" s="69"/>
       <c r="O110" s="69"/>
@@ -14118,9 +14157,9 @@
       <c r="AE110" s="117"/>
       <c r="AF110" s="190"/>
       <c r="AG110" s="157"/>
-      <c r="AH110" s="563"/>
-      <c r="AI110" s="563"/>
-      <c r="AJ110" s="564"/>
+      <c r="AH110" s="535"/>
+      <c r="AI110" s="535"/>
+      <c r="AJ110" s="536"/>
       <c r="AK110" s="164"/>
       <c r="AM110" s="217">
         <v>43573</v>
@@ -14180,11 +14219,11 @@
       <c r="D111" s="59"/>
       <c r="E111" s="59"/>
       <c r="G111" s="72"/>
-      <c r="H111" s="558"/>
-      <c r="I111" s="559"/>
-      <c r="J111" s="545"/>
-      <c r="K111" s="545"/>
-      <c r="L111" s="557"/>
+      <c r="H111" s="530"/>
+      <c r="I111" s="531"/>
+      <c r="J111" s="517"/>
+      <c r="K111" s="517"/>
+      <c r="L111" s="529"/>
       <c r="M111" s="69"/>
       <c r="N111" s="69"/>
       <c r="O111" s="69"/>
@@ -14205,9 +14244,9 @@
       <c r="AE111" s="117"/>
       <c r="AF111" s="190"/>
       <c r="AG111" s="157"/>
-      <c r="AH111" s="563"/>
-      <c r="AI111" s="563"/>
-      <c r="AJ111" s="564"/>
+      <c r="AH111" s="535"/>
+      <c r="AI111" s="535"/>
+      <c r="AJ111" s="536"/>
       <c r="AK111" s="164"/>
       <c r="AM111" s="217">
         <v>43574</v>
@@ -14267,11 +14306,11 @@
       <c r="D112" s="59"/>
       <c r="E112" s="59"/>
       <c r="G112" s="72"/>
-      <c r="H112" s="558"/>
-      <c r="I112" s="559"/>
-      <c r="J112" s="545"/>
-      <c r="K112" s="545"/>
-      <c r="L112" s="557"/>
+      <c r="H112" s="530"/>
+      <c r="I112" s="531"/>
+      <c r="J112" s="517"/>
+      <c r="K112" s="517"/>
+      <c r="L112" s="529"/>
       <c r="M112" s="69"/>
       <c r="N112" s="69"/>
       <c r="O112" s="69"/>
@@ -14292,9 +14331,9 @@
       <c r="AE112" s="117"/>
       <c r="AF112" s="190"/>
       <c r="AG112" s="157"/>
-      <c r="AH112" s="563"/>
-      <c r="AI112" s="563"/>
-      <c r="AJ112" s="564"/>
+      <c r="AH112" s="535"/>
+      <c r="AI112" s="535"/>
+      <c r="AJ112" s="536"/>
       <c r="AK112" s="164"/>
       <c r="AM112" s="217">
         <v>43575</v>
@@ -14354,11 +14393,11 @@
       <c r="D113" s="59"/>
       <c r="E113" s="59"/>
       <c r="G113" s="72"/>
-      <c r="H113" s="558"/>
-      <c r="I113" s="559"/>
-      <c r="J113" s="545"/>
-      <c r="K113" s="545"/>
-      <c r="L113" s="557"/>
+      <c r="H113" s="530"/>
+      <c r="I113" s="531"/>
+      <c r="J113" s="517"/>
+      <c r="K113" s="517"/>
+      <c r="L113" s="529"/>
       <c r="M113" s="69"/>
       <c r="N113" s="69"/>
       <c r="O113" s="69"/>
@@ -14379,9 +14418,9 @@
       <c r="AE113" s="117"/>
       <c r="AF113" s="190"/>
       <c r="AG113" s="157"/>
-      <c r="AH113" s="563"/>
-      <c r="AI113" s="563"/>
-      <c r="AJ113" s="564"/>
+      <c r="AH113" s="535"/>
+      <c r="AI113" s="535"/>
+      <c r="AJ113" s="536"/>
       <c r="AK113" s="164"/>
       <c r="AM113" s="217">
         <v>43576</v>
@@ -14441,11 +14480,11 @@
       <c r="D114" s="59"/>
       <c r="E114" s="59"/>
       <c r="G114" s="72"/>
-      <c r="H114" s="558"/>
-      <c r="I114" s="559"/>
-      <c r="J114" s="545"/>
-      <c r="K114" s="545"/>
-      <c r="L114" s="557"/>
+      <c r="H114" s="530"/>
+      <c r="I114" s="531"/>
+      <c r="J114" s="517"/>
+      <c r="K114" s="517"/>
+      <c r="L114" s="529"/>
       <c r="M114" s="69"/>
       <c r="N114" s="69"/>
       <c r="O114" s="69"/>
@@ -14466,9 +14505,9 @@
       <c r="AE114" s="117"/>
       <c r="AF114" s="190"/>
       <c r="AG114" s="157"/>
-      <c r="AH114" s="563"/>
-      <c r="AI114" s="563"/>
-      <c r="AJ114" s="564"/>
+      <c r="AH114" s="535"/>
+      <c r="AI114" s="535"/>
+      <c r="AJ114" s="536"/>
       <c r="AK114" s="164"/>
       <c r="AM114" s="217">
         <v>43577</v>
@@ -14528,11 +14567,11 @@
       <c r="D115" s="59"/>
       <c r="E115" s="59"/>
       <c r="G115" s="72"/>
-      <c r="H115" s="558"/>
-      <c r="I115" s="559"/>
-      <c r="J115" s="545"/>
-      <c r="K115" s="545"/>
-      <c r="L115" s="557"/>
+      <c r="H115" s="530"/>
+      <c r="I115" s="531"/>
+      <c r="J115" s="517"/>
+      <c r="K115" s="517"/>
+      <c r="L115" s="529"/>
       <c r="M115" s="65"/>
       <c r="N115" s="69"/>
       <c r="O115" s="69"/>
@@ -14553,9 +14592,9 @@
       <c r="AE115" s="117"/>
       <c r="AF115" s="190"/>
       <c r="AG115" s="157"/>
-      <c r="AH115" s="563"/>
-      <c r="AI115" s="563"/>
-      <c r="AJ115" s="564"/>
+      <c r="AH115" s="535"/>
+      <c r="AI115" s="535"/>
+      <c r="AJ115" s="536"/>
       <c r="AK115" s="164"/>
       <c r="AM115" s="217">
         <v>43578</v>
@@ -14615,11 +14654,11 @@
       <c r="D116" s="59"/>
       <c r="E116" s="59"/>
       <c r="G116" s="72"/>
-      <c r="H116" s="558"/>
-      <c r="I116" s="559"/>
-      <c r="J116" s="545"/>
-      <c r="K116" s="545"/>
-      <c r="L116" s="557"/>
+      <c r="H116" s="530"/>
+      <c r="I116" s="531"/>
+      <c r="J116" s="517"/>
+      <c r="K116" s="517"/>
+      <c r="L116" s="529"/>
       <c r="M116" s="65"/>
       <c r="N116" s="69"/>
       <c r="O116" s="69"/>
@@ -14640,9 +14679,9 @@
       <c r="AE116" s="117"/>
       <c r="AF116" s="190"/>
       <c r="AG116" s="157"/>
-      <c r="AH116" s="563"/>
-      <c r="AI116" s="563"/>
-      <c r="AJ116" s="564"/>
+      <c r="AH116" s="535"/>
+      <c r="AI116" s="535"/>
+      <c r="AJ116" s="536"/>
       <c r="AK116" s="164"/>
       <c r="AM116" s="217">
         <v>43579</v>
@@ -14702,11 +14741,11 @@
       <c r="D117" s="59"/>
       <c r="E117" s="59"/>
       <c r="G117" s="72"/>
-      <c r="H117" s="558"/>
-      <c r="I117" s="559"/>
-      <c r="J117" s="545"/>
-      <c r="K117" s="545"/>
-      <c r="L117" s="557"/>
+      <c r="H117" s="530"/>
+      <c r="I117" s="531"/>
+      <c r="J117" s="517"/>
+      <c r="K117" s="517"/>
+      <c r="L117" s="529"/>
       <c r="M117" s="65"/>
       <c r="N117" s="69"/>
       <c r="O117" s="69"/>
@@ -14727,9 +14766,9 @@
       <c r="AE117" s="117"/>
       <c r="AF117" s="190"/>
       <c r="AG117" s="157"/>
-      <c r="AH117" s="563"/>
-      <c r="AI117" s="563"/>
-      <c r="AJ117" s="564"/>
+      <c r="AH117" s="535"/>
+      <c r="AI117" s="535"/>
+      <c r="AJ117" s="536"/>
       <c r="AK117" s="164"/>
       <c r="AM117" s="217">
         <v>43580</v>
@@ -14789,11 +14828,11 @@
       <c r="D118" s="59"/>
       <c r="E118" s="59"/>
       <c r="G118" s="72"/>
-      <c r="H118" s="558"/>
-      <c r="I118" s="559"/>
-      <c r="J118" s="545"/>
-      <c r="K118" s="545"/>
-      <c r="L118" s="557"/>
+      <c r="H118" s="530"/>
+      <c r="I118" s="531"/>
+      <c r="J118" s="517"/>
+      <c r="K118" s="517"/>
+      <c r="L118" s="529"/>
       <c r="M118" s="65"/>
       <c r="N118" s="69"/>
       <c r="O118" s="69"/>
@@ -14814,9 +14853,9 @@
       <c r="AE118" s="117"/>
       <c r="AF118" s="190"/>
       <c r="AG118" s="157"/>
-      <c r="AH118" s="563"/>
-      <c r="AI118" s="563"/>
-      <c r="AJ118" s="564"/>
+      <c r="AH118" s="535"/>
+      <c r="AI118" s="535"/>
+      <c r="AJ118" s="536"/>
       <c r="AK118" s="164"/>
       <c r="AM118" s="217">
         <v>43581</v>
@@ -14876,11 +14915,11 @@
       <c r="D119" s="59"/>
       <c r="E119" s="59"/>
       <c r="G119" s="72"/>
-      <c r="H119" s="558"/>
-      <c r="I119" s="559"/>
-      <c r="J119" s="545"/>
-      <c r="K119" s="545"/>
-      <c r="L119" s="557"/>
+      <c r="H119" s="530"/>
+      <c r="I119" s="531"/>
+      <c r="J119" s="517"/>
+      <c r="K119" s="517"/>
+      <c r="L119" s="529"/>
       <c r="M119" s="65"/>
       <c r="N119" s="69"/>
       <c r="O119" s="69"/>
@@ -14901,9 +14940,9 @@
       <c r="AE119" s="117"/>
       <c r="AF119" s="190"/>
       <c r="AG119" s="157"/>
-      <c r="AH119" s="563"/>
-      <c r="AI119" s="563"/>
-      <c r="AJ119" s="564"/>
+      <c r="AH119" s="535"/>
+      <c r="AI119" s="535"/>
+      <c r="AJ119" s="536"/>
       <c r="AK119" s="164"/>
       <c r="AM119" s="217">
         <v>43582</v>
@@ -14963,11 +15002,11 @@
       <c r="D120" s="59"/>
       <c r="E120" s="59"/>
       <c r="G120" s="72"/>
-      <c r="H120" s="558"/>
-      <c r="I120" s="559"/>
-      <c r="J120" s="545"/>
-      <c r="K120" s="545"/>
-      <c r="L120" s="557"/>
+      <c r="H120" s="530"/>
+      <c r="I120" s="531"/>
+      <c r="J120" s="517"/>
+      <c r="K120" s="517"/>
+      <c r="L120" s="529"/>
       <c r="M120" s="65"/>
       <c r="N120" s="69"/>
       <c r="O120" s="69"/>
@@ -15252,38 +15291,38 @@
       <c r="AI123" s="159"/>
       <c r="AJ123" s="163"/>
       <c r="AK123" s="164"/>
-      <c r="AM123" s="568">
+      <c r="AM123" s="539">
         <v>43586</v>
       </c>
-      <c r="AN123" s="569"/>
-      <c r="AO123" s="570"/>
-      <c r="AP123" s="571"/>
-      <c r="AQ123" s="572"/>
-      <c r="AR123" s="569"/>
-      <c r="AS123" s="573"/>
-      <c r="AT123" s="574"/>
-      <c r="AU123" s="572"/>
-      <c r="AV123" s="575"/>
-      <c r="AW123" s="576"/>
-      <c r="AX123" s="577"/>
-      <c r="AY123" s="578"/>
-      <c r="AZ123" s="577"/>
-      <c r="BA123" s="577"/>
-      <c r="BB123" s="577"/>
-      <c r="BC123" s="577"/>
-      <c r="BD123" s="577"/>
-      <c r="BE123" s="577"/>
-      <c r="BF123" s="577"/>
-      <c r="BG123" s="569"/>
-      <c r="BH123" s="579"/>
-      <c r="BI123" s="573"/>
-      <c r="BJ123" s="572"/>
-      <c r="BK123" s="577"/>
-      <c r="BL123" s="569"/>
-      <c r="BM123" s="580"/>
-      <c r="BN123" s="581"/>
-      <c r="BO123" s="579"/>
-      <c r="BP123" s="582"/>
+      <c r="AN123" s="540"/>
+      <c r="AO123" s="541"/>
+      <c r="AP123" s="542"/>
+      <c r="AQ123" s="543"/>
+      <c r="AR123" s="540"/>
+      <c r="AS123" s="544"/>
+      <c r="AT123" s="545"/>
+      <c r="AU123" s="543"/>
+      <c r="AV123" s="546"/>
+      <c r="AW123" s="547"/>
+      <c r="AX123" s="548"/>
+      <c r="AY123" s="549"/>
+      <c r="AZ123" s="548"/>
+      <c r="BA123" s="548"/>
+      <c r="BB123" s="548"/>
+      <c r="BC123" s="548"/>
+      <c r="BD123" s="548"/>
+      <c r="BE123" s="548"/>
+      <c r="BF123" s="548"/>
+      <c r="BG123" s="540"/>
+      <c r="BH123" s="550"/>
+      <c r="BI123" s="544"/>
+      <c r="BJ123" s="543"/>
+      <c r="BK123" s="548"/>
+      <c r="BL123" s="540"/>
+      <c r="BM123" s="551"/>
+      <c r="BN123" s="552"/>
+      <c r="BO123" s="550"/>
+      <c r="BP123" s="553"/>
       <c r="BQ123" s="190"/>
       <c r="BR123" s="190"/>
       <c r="BS123" s="190"/>
@@ -15323,38 +15362,38 @@
       <c r="AI124" s="159"/>
       <c r="AJ124" s="163"/>
       <c r="AK124" s="164"/>
-      <c r="AM124" s="568">
+      <c r="AM124" s="539">
         <v>43587</v>
       </c>
-      <c r="AN124" s="569"/>
-      <c r="AO124" s="570"/>
-      <c r="AP124" s="571"/>
-      <c r="AQ124" s="572"/>
-      <c r="AR124" s="569"/>
-      <c r="AS124" s="573"/>
-      <c r="AT124" s="574"/>
-      <c r="AU124" s="572"/>
-      <c r="AV124" s="575"/>
-      <c r="AW124" s="576"/>
-      <c r="AX124" s="577"/>
-      <c r="AY124" s="577"/>
-      <c r="AZ124" s="577"/>
-      <c r="BA124" s="577"/>
-      <c r="BB124" s="577"/>
-      <c r="BC124" s="577"/>
-      <c r="BD124" s="577"/>
-      <c r="BE124" s="577"/>
-      <c r="BF124" s="577"/>
-      <c r="BG124" s="569"/>
-      <c r="BH124" s="579"/>
-      <c r="BI124" s="573"/>
-      <c r="BJ124" s="572"/>
-      <c r="BK124" s="577"/>
-      <c r="BL124" s="569"/>
-      <c r="BM124" s="580"/>
-      <c r="BN124" s="581"/>
-      <c r="BO124" s="583"/>
-      <c r="BP124" s="582"/>
+      <c r="AN124" s="540"/>
+      <c r="AO124" s="541"/>
+      <c r="AP124" s="542"/>
+      <c r="AQ124" s="543"/>
+      <c r="AR124" s="540"/>
+      <c r="AS124" s="544"/>
+      <c r="AT124" s="545"/>
+      <c r="AU124" s="543"/>
+      <c r="AV124" s="546"/>
+      <c r="AW124" s="547"/>
+      <c r="AX124" s="548"/>
+      <c r="AY124" s="548"/>
+      <c r="AZ124" s="548"/>
+      <c r="BA124" s="548"/>
+      <c r="BB124" s="548"/>
+      <c r="BC124" s="548"/>
+      <c r="BD124" s="548"/>
+      <c r="BE124" s="548"/>
+      <c r="BF124" s="548"/>
+      <c r="BG124" s="540"/>
+      <c r="BH124" s="550"/>
+      <c r="BI124" s="544"/>
+      <c r="BJ124" s="543"/>
+      <c r="BK124" s="548"/>
+      <c r="BL124" s="540"/>
+      <c r="BM124" s="551"/>
+      <c r="BN124" s="552"/>
+      <c r="BO124" s="554"/>
+      <c r="BP124" s="553"/>
       <c r="BQ124" s="190"/>
       <c r="BR124" s="190"/>
       <c r="BS124" s="190"/>
@@ -15394,7 +15433,7 @@
       <c r="AI125" s="159"/>
       <c r="AJ125" s="163"/>
       <c r="AK125" s="164"/>
-      <c r="AM125" s="568">
+      <c r="AM125" s="539">
         <v>43588</v>
       </c>
       <c r="AN125" s="300"/>
@@ -44531,13 +44570,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AH25:AI25"/>
-    <mergeCell ref="AP1:BP1"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="V9:AB9"/>
-    <mergeCell ref="AC9:AD9"/>
     <mergeCell ref="AH40:AI40"/>
     <mergeCell ref="N9:T9"/>
     <mergeCell ref="N11:P11"/>
@@ -44553,6 +44585,13 @@
     <mergeCell ref="AG35:AJ35"/>
     <mergeCell ref="AH29:AI29"/>
     <mergeCell ref="AH24:AI24"/>
+    <mergeCell ref="AH25:AI25"/>
+    <mergeCell ref="AP1:BP1"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="AC9:AD9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
